--- a/Data/2022-07-28_Morphology_Assay_effsize.xlsx
+++ b/Data/2022-07-28_Morphology_Assay_effsize.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,27 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -446,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,27 +434,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Body length (µm)</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Body length (µm)</t>
+          <t>Heart Rate (BPM)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Heart Rate (BPM)</t>
+          <t>Ejection fraction (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ejection fraction (%)</t>
+          <t>Number ISV (Count)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Number ISV (Count)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ISV area (µm^2)</t>
         </is>
@@ -484,347 +463,309 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>GSK-369796_1C03</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>1</v>
+          <t>Papaverine_1C02</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.09609229749971417</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01710554507153296</v>
+        <v>0.2943494339280845</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6138746072000405</v>
+        <v>-0.7920209532043594</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.8101374896715091</v>
+        <v>0.5396505787993127</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8330714263383444</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0.0596783651922731</v>
+        <v>-0.2818030197653672</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Daclatasvir_1C04</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>1</v>
+          <t>GSK-369796_1C03</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.01710554507153296</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3626296370700399</v>
+        <v>0.6138746072000405</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8855083167027546</v>
+        <v>-0.8101374896715091</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.08341366343785046</v>
+        <v>0.8330714263383444</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3993723491197789</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.2161235391087372</v>
+        <v>-0.0596783651922731</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Lonafarnib_1C05</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>1</v>
+          <t>Daclatasvir_1C04</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3626296370700399</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1944666097516753</v>
+        <v>0.8855083167027546</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9236622458915372</v>
+        <v>-0.08341366343785046</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4596997685622697</v>
+        <v>0.3993723491197789</v>
       </c>
       <c r="F4" t="n">
-        <v>0.475488613841902</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.01046718631775997</v>
+        <v>0.2161235391087372</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Itraconazole_1C06</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>1</v>
+          <t>Lonafarnib_1C05</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.1944666097516753</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5374540278375987</v>
+        <v>0.9236622458915372</v>
       </c>
       <c r="D5" t="n">
-        <v>1.109795660773184</v>
+        <v>-0.4596997685622697</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.07445174220053308</v>
+        <v>0.475488613841902</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3874466086919227</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.2210322169930537</v>
+        <v>0.01046718631775997</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>GSK 983_1C07</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>1</v>
+          <t>Itraconazole_1C06</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5374540278375987</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3288875416818026</v>
+        <v>1.109795660773184</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5662476352942668</v>
+        <v>-0.07445174220053308</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1685510903837953</v>
+        <v>0.3874466086919227</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1218520428048531</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1040509583972432</v>
+        <v>0.2210322169930537</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Tioguanine_1C08</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>1</v>
+          <t>GSK 983_1C07</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3288875416818026</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07389531730100209</v>
+        <v>0.5662476352942668</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3905486592030545</v>
+        <v>-0.1685510903837953</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2127273394345244</v>
+        <v>0.1218520428048531</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3625857460084776</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.07679190010613278</v>
+        <v>0.1040509583972432</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Tomivosertib_1C09</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>1</v>
+          <t>Tioguanine_1C08</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.07389531730100209</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3242216335995375</v>
+        <v>0.3905486592030545</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2240276414909932</v>
+        <v>-0.2127273394345244</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.3020824920151683</v>
+        <v>-0.3625857460084776</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07680231557384934</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.3834261728057362</v>
+        <v>0.07679190010613278</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>LY 2228820_1C10</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>1</v>
+          <t>Tomivosertib_1C09</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3242216335995375</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1320733240847073</v>
+        <v>-0.2240276414909932</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.09018442164832249</v>
+        <v>-0.3020824920151683</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4740254177713775</v>
+        <v>0.07680231557384934</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5967638332771477</v>
-      </c>
-      <c r="G9" t="n">
-        <v>-0.125932748703794</v>
+        <v>0.3834261728057362</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Control</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>1</v>
+          <t>LY 2228820_1C10</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.1320733240847073</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-0.09018442164832249</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.4740254177713775</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.5967638332771477</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
+        <v>-0.125932748703794</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Tigecycline_1C11</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>1</v>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4997958590789806</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1946862610136474</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7125256103583025</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07680231557384934</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.3699860403015384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Digoxin_1D02</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>1</v>
+          <t>Tigecycline_1C11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.4997958590789806</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5239648677116617</v>
+        <v>0.1946862610136474</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4426579525616242</v>
+        <v>-0.7125256103583025</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.07626809351556872</v>
+        <v>0.07680231557384934</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1266697318538898</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.4813384930067339</v>
+        <v>0.3699860403015384</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Amodiaquine_1D03</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>1</v>
+          <t>Digoxin_1D02</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5239648677116617</v>
       </c>
       <c r="C13" t="n">
-        <v>0.704063078771445</v>
+        <v>0.4426579525616242</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8641879619688341</v>
+        <v>-0.07626809351556872</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4799553195925527</v>
+        <v>-0.1266697318538898</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3508895528078157</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.1932173718767593</v>
+        <v>-0.4813384930067339</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
+          <t>Amodiaquine_1D03</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.704063078771445</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8641879619688341</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4799553195925527</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.3508895528078157</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.1932173718767593</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
           <t>Astemizole_1D04</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4.19575217314378</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.921098222665703</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4.360274042730815</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.8936647419761483</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.314119823471509</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n">
-        <v>0.5</v>
+      <c r="B15" t="n">
+        <v>4.285549320924812</v>
       </c>
       <c r="C15" t="n">
-        <v>3.538186502587194</v>
+        <v>1.735587255833802</v>
       </c>
       <c r="D15" t="n">
-        <v>3.576519281790036</v>
+        <v>4.037491681780076</v>
       </c>
       <c r="E15" t="n">
-        <v>1.226293225035449</v>
+        <v>1.109610977136831</v>
       </c>
       <c r="F15" t="n">
-        <v>1.338500560758994</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.8035004309716276</v>
+        <v>1.22088711682824</v>
       </c>
     </row>
     <row r="16">
@@ -833,22 +774,19 @@
           <t>Halofantrine_1D05</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
-        <v>1</v>
+      <c r="B16" t="n">
+        <v>0.195877497204869</v>
       </c>
       <c r="C16" t="n">
-        <v>0.195877497204869</v>
+        <v>2.330373813352846</v>
       </c>
       <c r="D16" t="n">
-        <v>2.330373813352846</v>
+        <v>-0.537074560482686</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.537074560482686</v>
+        <v>0.301336299213825</v>
       </c>
       <c r="F16" t="n">
-        <v>0.301336299213825</v>
-      </c>
-      <c r="G16" t="n">
         <v>0.1333055810817916</v>
       </c>
     </row>
@@ -858,22 +796,19 @@
           <t>Ravuconazole_1D06</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
-        <v>1</v>
+      <c r="B17" t="n">
+        <v>1.115742007049427</v>
       </c>
       <c r="C17" t="n">
-        <v>1.115742007049427</v>
+        <v>0.3908225410569317</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3908225410569317</v>
+        <v>-0.7564843814452571</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.7564843814452571</v>
+        <v>-0.1023123638819837</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1023123638819837</v>
-      </c>
-      <c r="G17" t="n">
         <v>0.477360995893602</v>
       </c>
     </row>
@@ -883,22 +818,19 @@
           <t>Tizoxanide_1D07</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
-        <v>1</v>
+      <c r="B18" t="n">
+        <v>0.4821087721782811</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4821087721782811</v>
+        <v>0.4257594325183627</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4257594325183627</v>
+        <v>-0.2261260962711793</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2261260962711793</v>
+        <v>-0.2804627149725248</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2804627149725248</v>
-      </c>
-      <c r="G18" t="n">
         <v>0.2409741923615196</v>
       </c>
     </row>
@@ -908,22 +840,19 @@
           <t>Valproic Acid_1D08</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
-        <v>1</v>
+      <c r="B19" t="n">
+        <v>0.6347337645957677</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6347337645957677</v>
+        <v>0.347046568020165</v>
       </c>
       <c r="D19" t="n">
-        <v>0.347046568020165</v>
+        <v>0.1229563027734984</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1229563027734984</v>
+        <v>-0.5508722252945299</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5508722252945299</v>
-      </c>
-      <c r="G19" t="n">
         <v>-0.1595902595599471</v>
       </c>
     </row>
@@ -933,22 +862,19 @@
           <t>Simeprevir_1D09</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>1</v>
+      <c r="B20" t="n">
+        <v>0.7685292867670875</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7685292867670875</v>
+        <v>0.7141454127317103</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7141454127317103</v>
+        <v>0.4572822200276972</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4572822200276972</v>
+        <v>0.2403552329607598</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2403552329607598</v>
-      </c>
-      <c r="G20" t="n">
         <v>-0.4619511961881178</v>
       </c>
     </row>
@@ -958,22 +884,19 @@
           <t>Favipiravir_1D10</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
-        <v>1</v>
+      <c r="B21" t="n">
+        <v>0.8669622795675206</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8669622795675206</v>
+        <v>0.4309005158163814</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4309005158163814</v>
+        <v>0.2358467989656832</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2358467989656832</v>
+        <v>0.3143535993724105</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3143535993724105</v>
-      </c>
-      <c r="G21" t="n">
         <v>0.493358026672893</v>
       </c>
     </row>
@@ -983,22 +906,19 @@
           <t>Vidofludimus_1D11</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
-        <v>1</v>
+      <c r="B22" t="n">
+        <v>0.1210152337847005</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1210152337847005</v>
+        <v>0.3259595266234792</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3259595266234792</v>
+        <v>0.3404008800200528</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3404008800200528</v>
+        <v>-0.01874529236692636</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01874529236692636</v>
-      </c>
-      <c r="G22" t="n">
         <v>0.05388674095524457</v>
       </c>
     </row>
@@ -1008,22 +928,19 @@
           <t>Hydroxyprogesterone_1E02</t>
         </is>
       </c>
-      <c r="B23" s="1" t="n">
-        <v>1</v>
+      <c r="B23" t="n">
+        <v>-0.8955438022895768</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.8955438022895768</v>
+        <v>0.1921879375975433</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1921879375975433</v>
+        <v>1.038197231373585</v>
       </c>
       <c r="E23" t="n">
-        <v>1.038197231373585</v>
+        <v>-0.3715212526644839</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.3715212526644839</v>
-      </c>
-      <c r="G23" t="n">
         <v>-0.1770641227298635</v>
       </c>
     </row>
@@ -1033,22 +950,19 @@
           <t>Nafamostat_1E03</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
-        <v>1</v>
+      <c r="B24" t="n">
+        <v>-0.3237596796090781</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.3237596796090781</v>
+        <v>-0.00230522294706256</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.00230522294706256</v>
+        <v>1.061216385034934</v>
       </c>
       <c r="E24" t="n">
-        <v>1.061216385034934</v>
+        <v>-0.3782880191862262</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.3782880191862262</v>
-      </c>
-      <c r="G24" t="n">
         <v>0.2745171934050036</v>
       </c>
     </row>
@@ -1058,22 +972,19 @@
           <t>Amuvatinib_1E04</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
-        <v>1</v>
+      <c r="B25" t="n">
+        <v>-0.176353043005568</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.176353043005568</v>
+        <v>-0.08014893144761609</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.08014893144761609</v>
+        <v>1.430180044205124</v>
       </c>
       <c r="E25" t="n">
-        <v>1.430180044205124</v>
+        <v>-0.2854398334904734</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.2854398334904734</v>
-      </c>
-      <c r="G25" t="n">
         <v>0.008267025661331844</v>
       </c>
     </row>
@@ -1083,22 +994,19 @@
           <t>Doxycycline_1E05</t>
         </is>
       </c>
-      <c r="B26" s="1" t="n">
-        <v>1</v>
+      <c r="B26" t="n">
+        <v>0.8220818377463839</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8220818377463839</v>
+        <v>0.07960276187496815</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07960276187496815</v>
+        <v>0.6632041968455582</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6632041968455582</v>
+        <v>-0.1634813421749971</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.1634813421749971</v>
-      </c>
-      <c r="G26" t="n">
         <v>-0.1043566706728666</v>
       </c>
     </row>
@@ -1108,22 +1016,19 @@
           <t>Emetine_1E06</t>
         </is>
       </c>
-      <c r="B27" s="1" t="n">
-        <v>1</v>
+      <c r="B27" t="n">
+        <v>-0.1366554038365506</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1366554038365506</v>
+        <v>0.02675234804521217</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02675234804521217</v>
+        <v>1.261338351981531</v>
       </c>
       <c r="E27" t="n">
-        <v>1.261338351981531</v>
+        <v>-0.2565435482870739</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.2565435482870739</v>
-      </c>
-      <c r="G27" t="n">
         <v>0.3296210377036702</v>
       </c>
     </row>
@@ -1133,22 +1038,19 @@
           <t>Triparanol_1E07</t>
         </is>
       </c>
-      <c r="B28" s="1" t="n">
-        <v>1</v>
+      <c r="B28" t="n">
+        <v>-0.156174825194544</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.156174825194544</v>
+        <v>-0.3020861667475509</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.3020861667475509</v>
+        <v>0.7760114354518983</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7760114354518983</v>
+        <v>-0.1510577023440255</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1510577023440255</v>
-      </c>
-      <c r="G28" t="n">
         <v>-0.02476829932322472</v>
       </c>
     </row>
@@ -1158,22 +1060,19 @@
           <t>Clomipramine_1E08</t>
         </is>
       </c>
-      <c r="B29" s="1" t="n">
-        <v>1</v>
+      <c r="B29" t="n">
+        <v>0.887893189510744</v>
       </c>
       <c r="C29" t="n">
-        <v>0.887893189510744</v>
+        <v>-0.2983028666645117</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2983028666645117</v>
+        <v>0.8142232067481502</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8142232067481502</v>
+        <v>-0.008985764095178508</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.008985764095178508</v>
-      </c>
-      <c r="G29" t="n">
         <v>-0.3868017355216988</v>
       </c>
     </row>
@@ -1183,22 +1082,19 @@
           <t>Sofosbuvir_1E09</t>
         </is>
       </c>
-      <c r="B30" s="1" t="n">
-        <v>1</v>
+      <c r="B30" t="n">
+        <v>-0.09962696138864292</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.09962696138864292</v>
+        <v>-0.1881471388532099</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1881471388532099</v>
+        <v>1.195717181250134</v>
       </c>
       <c r="E30" t="n">
-        <v>1.195717181250134</v>
+        <v>0.3456555327298598</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3456555327298598</v>
-      </c>
-      <c r="G30" t="n">
         <v>0.00684551581083622</v>
       </c>
     </row>
@@ -1208,22 +1104,19 @@
           <t>Camostat_1E10</t>
         </is>
       </c>
-      <c r="B31" s="1" t="n">
-        <v>1</v>
+      <c r="B31" t="n">
+        <v>-0.1757966766374851</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1757966766374851</v>
+        <v>-0.4258415008429254</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4258415008429254</v>
+        <v>1.196194360072161</v>
       </c>
       <c r="E31" t="n">
-        <v>1.196194360072161</v>
+        <v>-0.6148230813934464</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.6148230813934464</v>
-      </c>
-      <c r="G31" t="n">
         <v>0.1411936230985031</v>
       </c>
     </row>
@@ -1233,22 +1126,19 @@
           <t>SMN-C3_1E11</t>
         </is>
       </c>
-      <c r="B32" s="1" t="n">
-        <v>1</v>
+      <c r="B32" t="n">
+        <v>-0.1157180599184631</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1157180599184631</v>
+        <v>-0.3432260546531637</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.3432260546531637</v>
+        <v>0.6248084337144081</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6248084337144081</v>
+        <v>0.08590137846293348</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08590137846293348</v>
-      </c>
-      <c r="G32" t="n">
         <v>0.2340011566025112</v>
       </c>
     </row>
@@ -1258,22 +1148,19 @@
           <t>Valsartan_1F02</t>
         </is>
       </c>
-      <c r="B33" s="1" t="n">
-        <v>1</v>
+      <c r="B33" t="n">
+        <v>-0.2623711701140524</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.2623711701140524</v>
+        <v>0.2474549927190023</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2474549927190023</v>
+        <v>1.197242801904812</v>
       </c>
       <c r="E33" t="n">
-        <v>1.197242801904812</v>
+        <v>0.9823059488178983</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9823059488178983</v>
-      </c>
-      <c r="G33" t="n">
         <v>0.5824854177043165</v>
       </c>
     </row>
@@ -1283,22 +1170,19 @@
           <t>Amiodarone_1F03</t>
         </is>
       </c>
-      <c r="B34" s="1" t="n">
-        <v>1</v>
+      <c r="B34" t="n">
+        <v>0.5915335384025221</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5915335384025221</v>
+        <v>1.121982038923544</v>
       </c>
       <c r="D34" t="n">
-        <v>1.121982038923544</v>
+        <v>0.6627170270769869</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6627170270769869</v>
+        <v>0.7336116833738002</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7336116833738002</v>
-      </c>
-      <c r="G34" t="n">
         <v>0.7190425762347107</v>
       </c>
     </row>
@@ -1308,22 +1192,19 @@
           <t>Cyclosporine_1F04</t>
         </is>
       </c>
-      <c r="B35" s="1" t="n">
-        <v>1</v>
+      <c r="B35" t="n">
+        <v>0.7868533787852081</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7868533787852081</v>
+        <v>0.7359966210755184</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7359966210755184</v>
+        <v>0.2854375092900638</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2854375092900638</v>
+        <v>0.6440448810086796</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6440448810086796</v>
-      </c>
-      <c r="G35" t="n">
         <v>0.4558041216614401</v>
       </c>
     </row>
@@ -1333,22 +1214,19 @@
           <t>Ivermectin_1F05</t>
         </is>
       </c>
-      <c r="B36" s="1" t="n">
-        <v>1</v>
+      <c r="B36" t="n">
+        <v>2.40953004185212</v>
       </c>
       <c r="C36" t="n">
-        <v>2.40953004185212</v>
+        <v>1.202478755068372</v>
       </c>
       <c r="D36" t="n">
-        <v>1.202478755068372</v>
+        <v>-0.06683294234997192</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.06683294234997192</v>
+        <v>0.8642969965109616</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8642969965109616</v>
-      </c>
-      <c r="G36" t="n">
         <v>1.054054402283203</v>
       </c>
     </row>
@@ -1358,22 +1236,19 @@
           <t>Indomethacin_1F06</t>
         </is>
       </c>
-      <c r="B37" s="1" t="n">
-        <v>1</v>
+      <c r="B37" t="n">
+        <v>0.5557256030123067</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5557256030123067</v>
+        <v>0.1501266067481486</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1501266067481486</v>
+        <v>0.7515965106117166</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7515965106117166</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
         <v>0.2825805613116197</v>
       </c>
     </row>
@@ -1383,22 +1258,19 @@
           <t>Captopril_1F07</t>
         </is>
       </c>
-      <c r="B38" s="1" t="n">
-        <v>1</v>
+      <c r="B38" t="n">
+        <v>0.6200493291455885</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6200493291455885</v>
+        <v>0.2201648066470259</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2201648066470259</v>
+        <v>0.5390183971608281</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5390183971608281</v>
+        <v>0.4641553747140522</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4641553747140522</v>
-      </c>
-      <c r="G38" t="n">
         <v>0.7590019993988899</v>
       </c>
     </row>
@@ -1408,3369 +1280,2751 @@
           <t>Sorafenib_1F09</t>
         </is>
       </c>
-      <c r="B39" s="1" t="n">
-        <v>1</v>
+      <c r="B39" t="n">
+        <v>1.780905796803631</v>
       </c>
       <c r="C39" t="n">
-        <v>1.789286831871167</v>
+        <v>1.038985298523824</v>
       </c>
       <c r="D39" t="n">
-        <v>1.256831638007398</v>
+        <v>2.088363850604096</v>
       </c>
       <c r="E39" t="n">
-        <v>2.317286662162577</v>
+        <v>9.816152836709838</v>
       </c>
       <c r="F39" t="n">
-        <v>10.8398708324583</v>
-      </c>
-      <c r="G39" t="n">
-        <v>3.641865682399838</v>
+        <v>3.250689692881092</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="n">
-        <v>0.5</v>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>ABT 239_1F10</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.188696889303178</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9639475476079132</v>
+        <v>1.269936993541035</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2426763180991346</v>
+        <v>0.1829536084973871</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.2990506055766823</v>
+        <v>0.5157820591895916</v>
       </c>
       <c r="F40" t="n">
-        <v>2.476950442212601</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1.208434969072125</v>
+        <v>0.2602864584595962</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ABT 239_1F10</t>
-        </is>
-      </c>
-      <c r="B41" s="1" t="n">
-        <v>1</v>
+          <t>Hydroxychloroquine_1F11</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.3967859614512963</v>
       </c>
       <c r="C41" t="n">
-        <v>0.188696889303178</v>
+        <v>0.3236346713331029</v>
       </c>
       <c r="D41" t="n">
-        <v>1.269936993541035</v>
+        <v>1.087386454584804</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1829536084973871</v>
+        <v>0.03664936711820803</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5157820591895916</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.2602864584595962</v>
+        <v>1.01605326124518</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Hydroxychloroquine_1F11</t>
-        </is>
-      </c>
-      <c r="B42" s="1" t="n">
-        <v>1</v>
+          <t>Ribavirin_1F08</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.7384673759392076</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3967859614512963</v>
+        <v>0.7698073384224177</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3236346713331029</v>
+        <v>0.7294370183753266</v>
       </c>
       <c r="E42" t="n">
-        <v>1.087386454584804</v>
+        <v>0.08079136576142094</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03664936711820803</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1.01605326124518</v>
+        <v>1.010866455427662</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Ribavirin_1F08</t>
-        </is>
-      </c>
-      <c r="B43" s="1" t="n">
-        <v>1</v>
+          <t>Benztropine_1G02</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7837253826024635</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7384673759392076</v>
+        <v>2.347283507698254</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7698073384224177</v>
+        <v>0.06049669909944824</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7294370183753266</v>
+        <v>-0.09346648585986086</v>
       </c>
       <c r="F43" t="n">
-        <v>0.08079136576142094</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1.010866455427662</v>
+        <v>0.09433760861999207</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Benztropine_1G02</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="n">
-        <v>1</v>
+          <t>Manidipine_1G03</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.279839260382916</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7837253826024635</v>
+        <v>3.035488387861208</v>
       </c>
       <c r="D44" t="n">
-        <v>2.347283507698254</v>
+        <v>1.08822146319777</v>
       </c>
       <c r="E44" t="n">
-        <v>0.06049669909944824</v>
+        <v>0.8098671138327115</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.09346648585986086</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.09433760861999207</v>
+        <v>0.6171682056687817</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Manidipine_1G03</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="n">
-        <v>1</v>
+          <t>Almitrine_1G04</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1.837173531446148</v>
       </c>
       <c r="C45" t="n">
-        <v>1.262497715551943</v>
+        <v>0.82131254820607</v>
       </c>
       <c r="D45" t="n">
-        <v>3.470254496549249</v>
+        <v>0.06456503302952978</v>
       </c>
       <c r="E45" t="n">
-        <v>1.328429285796326</v>
+        <v>0.37661492093361</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6527980167474868</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.7335268536368018</v>
+        <v>0.09731454547492885</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="n">
-        <v>0.5</v>
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Nitazoxanide_1G05</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.1941620299486874</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7310190773663188</v>
+        <v>2.325149149412935</v>
       </c>
       <c r="D46" t="n">
-        <v>2.707042702201234</v>
+        <v>0.2279440895170921</v>
       </c>
       <c r="E46" t="n">
-        <v>0.6162619113243664</v>
+        <v>-0.1362046119444461</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7263930642320059</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.1713435574458417</v>
+        <v>0.5025076807297437</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Almitrine_1G04</t>
-        </is>
-      </c>
-      <c r="B47" s="1" t="n">
-        <v>1</v>
+          <t>MK-2206_1G06</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1.218038642989592</v>
       </c>
       <c r="C47" t="n">
-        <v>1.837173531446148</v>
+        <v>1.015259749702562</v>
       </c>
       <c r="D47" t="n">
-        <v>0.82131254820607</v>
+        <v>0.187402423210398</v>
       </c>
       <c r="E47" t="n">
-        <v>0.06456503302952978</v>
+        <v>0.7415039977600626</v>
       </c>
       <c r="F47" t="n">
-        <v>0.37661492093361</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.09731454547492885</v>
+        <v>-0.06087633351919913</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Nitazoxanide_1G05</t>
-        </is>
-      </c>
-      <c r="B48" s="1" t="n">
-        <v>1</v>
+          <t>Terconazole_1G07</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1436090530257945</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1941620299486874</v>
+        <v>1.860486002970419</v>
       </c>
       <c r="D48" t="n">
-        <v>2.325149149412935</v>
+        <v>0.01738521697490988</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2279440895170921</v>
+        <v>0.07456371371686177</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.1362046119444461</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.5025076807297437</v>
+        <v>0.4226750793040298</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>MK-2206_1G06</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="n">
-        <v>1</v>
+          <t>Midostaurin_1G08</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1.387583897918711</v>
       </c>
       <c r="C49" t="n">
-        <v>1.218038642989592</v>
+        <v>1.499731762108138</v>
       </c>
       <c r="D49" t="n">
-        <v>1.015259749702562</v>
+        <v>0.5163870271325698</v>
       </c>
       <c r="E49" t="n">
-        <v>0.187402423210398</v>
+        <v>0.9181404564967044</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7415039977600626</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-0.06087633351919913</v>
+        <v>0.1413473837948133</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Terconazole_1G07</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="n">
-        <v>1</v>
+          <t>Ferroquine_1G09</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.03243247784461493</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.1020327116407461</v>
+        <v>1.180104595973571</v>
       </c>
       <c r="D50" t="n">
-        <v>1.49702381171102</v>
+        <v>0.1265438983805751</v>
       </c>
       <c r="E50" t="n">
-        <v>0.07719131181981141</v>
+        <v>0.03801927543122637</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.1225860848636955</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.7399077150307345</v>
+        <v>0.3243920631262566</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="n">
-        <v>0.5</v>
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>SAX-187_1G10</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.5317943787351839</v>
       </c>
       <c r="C51" t="n">
-        <v>0.6140063801812443</v>
+        <v>1.037526847524958</v>
       </c>
       <c r="D51" t="n">
-        <v>1.091065903954251</v>
+        <v>-0.5785703530190109</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1416499258523236</v>
+        <v>-0.06802134870182203</v>
       </c>
       <c r="F51" t="n">
-        <v>0.4902795152349387</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.1211370969189957</v>
+        <v>0.1829374750430928</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>Midostaurin_1G08</t>
-        </is>
-      </c>
-      <c r="B52" s="1" t="n">
-        <v>1</v>
+          <t>Abemaciclib_1G11</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>-0.4608287125790603</v>
       </c>
       <c r="C52" t="n">
-        <v>1.460679386823443</v>
+        <v>0.4540948692726249</v>
       </c>
       <c r="D52" t="n">
-        <v>1.792234917768253</v>
+        <v>-0.6734014330176195</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6588983533743533</v>
+        <v>0.03310752378337898</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7356922342029147</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.2113357639360056</v>
+        <v>-0.07528518922868874</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n"/>
-      <c r="B53" s="1" t="n">
-        <v>0.5</v>
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Pevonedistat_1H02</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>-0.1257975653296553</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2509425352440975</v>
+        <v>0.554580894340056</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7324387155437467</v>
+        <v>1.899728405908342</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.5158424316967847</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1.415091221996799</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-0.08831282948471282</v>
+        <v>0.1719952863605349</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Ferroquine_1G09</t>
-        </is>
-      </c>
-      <c r="B54" s="1" t="n">
-        <v>1</v>
+          <t>Tetrandrine_1H03</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>-0.003350744574717411</v>
       </c>
       <c r="C54" t="n">
-        <v>0.03243247784461493</v>
+        <v>0.8093929217027306</v>
       </c>
       <c r="D54" t="n">
-        <v>1.180104595973571</v>
+        <v>2.099473080152348</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1265438983805751</v>
+        <v>-0.3895731968747319</v>
       </c>
       <c r="F54" t="n">
-        <v>0.03801927543122637</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.3243920631262566</v>
+        <v>0.6150575591028954</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>SAX-187_1G10</t>
-        </is>
-      </c>
-      <c r="B55" s="1" t="n">
-        <v>1</v>
+          <t>Lopinavir_1H04</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.3647498084752003</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.5317943787351839</v>
+        <v>0.3842015321475116</v>
       </c>
       <c r="D55" t="n">
-        <v>1.037526847524958</v>
+        <v>0.8653467721219954</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5785703530190109</v>
+        <v>0.313776673677315</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.06802134870182203</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.1829374750430928</v>
+        <v>0.1966196635015316</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Abemaciclib_1G11</t>
-        </is>
-      </c>
-      <c r="B56" s="1" t="n">
-        <v>1</v>
+          <t>Imatinib_1H05</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>-0.8588994592809452</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.4608287125790603</v>
+        <v>0.4722661725696453</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4540948692726249</v>
+        <v>2.710221188077626</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6734014330176195</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.03310752378337898</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-0.07528518922868874</v>
+        <v>-0.5628737719169682</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Pevonedistat_1H02</t>
-        </is>
-      </c>
-      <c r="B57" s="1" t="n">
-        <v>1</v>
+          <t>Fluphenazine_1H06</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>-0.6772068215969052</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.1257975653296553</v>
+        <v>0.07962948598516131</v>
       </c>
       <c r="D57" t="n">
-        <v>0.554580894340056</v>
+        <v>0.6383118066200437</v>
       </c>
       <c r="E57" t="n">
-        <v>1.899728405908342</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.1719952863605349</v>
+        <v>0.362764807595072</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Tetrandrine_1H03</t>
-        </is>
-      </c>
-      <c r="B58" s="1" t="n">
-        <v>1</v>
+          <t>Haloperidol_1H07</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>-0.5111921391976443</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.003350744574717411</v>
+        <v>0.5056489280226814</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8093929217027306</v>
+        <v>-0.556850355859163</v>
       </c>
       <c r="E58" t="n">
-        <v>2.099473080152348</v>
+        <v>0.6091449038731727</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.3895731968747319</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.6150575591028954</v>
+        <v>0.5172363438004776</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Lopinavir_1H04</t>
-        </is>
-      </c>
-      <c r="B59" s="1" t="n">
-        <v>1</v>
+          <t>Ozanimod_1H08</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>-0.2172071842858292</v>
       </c>
       <c r="C59" t="n">
-        <v>0.3647498084752003</v>
+        <v>0.6071230996845735</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3842015321475116</v>
+        <v>1.263356084199077</v>
       </c>
       <c r="E59" t="n">
-        <v>0.8653467721219954</v>
+        <v>0.188599531995557</v>
       </c>
       <c r="F59" t="n">
-        <v>0.313776673677315</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.1966196635015316</v>
+        <v>0.464909828535942</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Imatinib_1H05</t>
-        </is>
-      </c>
-      <c r="B60" s="1" t="n">
-        <v>1</v>
+          <t>Loratidine_1H09</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.1788745289244462</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.8588994592809452</v>
+        <v>-0.5094898135797099</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4722661725696453</v>
+        <v>1.21327191096534</v>
       </c>
       <c r="E60" t="n">
-        <v>2.710221188077626</v>
+        <v>0.6754452835214781</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-0.5628737719169682</v>
+        <v>0.3460361866179966</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Fluphenazine_1H06</t>
-        </is>
-      </c>
-      <c r="B61" s="1" t="n">
-        <v>1</v>
+          <t>Posaconazole_1H10</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>-0.4167670595997987</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.6772068215969052</v>
+        <v>-0.2884469676118201</v>
       </c>
       <c r="D61" t="n">
-        <v>0.07962948598516131</v>
+        <v>-0.3525941381496845</v>
       </c>
       <c r="E61" t="n">
-        <v>0.6383118066200437</v>
+        <v>0.1478381953726348</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.362764807595072</v>
+        <v>-0.3115240433926302</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Haloperidol_1H07</t>
-        </is>
-      </c>
-      <c r="B62" s="1" t="n">
-        <v>1</v>
+          <t>Pyronaridine_1H11</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.3421200317115715</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.5111921391976443</v>
+        <v>0.3151638411122483</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5056489280226814</v>
+        <v>0.5322546795244764</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.556850355859163</v>
+        <v>-0.3592252271906948</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6091449038731727</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.5172363438004776</v>
+        <v>0.2763827268425114</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Ozanimod_1H08</t>
-        </is>
-      </c>
-      <c r="B63" s="1" t="n">
-        <v>1</v>
+          <t>Fluspirilene_2A02</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1.019317176219537</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.2172071842858292</v>
+        <v>1.973727415020475</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6071230996845735</v>
+        <v>0.6527331475565089</v>
       </c>
       <c r="E63" t="n">
-        <v>1.263356084199077</v>
+        <v>-0.3698877385020448</v>
       </c>
       <c r="F63" t="n">
-        <v>0.188599531995557</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.464909828535942</v>
+        <v>-0.1328200049249257</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Loratidine_1H09</t>
-        </is>
-      </c>
-      <c r="B64" s="1" t="n">
-        <v>1</v>
+          <t>Tetracycline_2A03</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.7310339996588116</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1788745289244462</v>
+        <v>1.246474948693456</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.5094898135797099</v>
+        <v>0.5455517143543739</v>
       </c>
       <c r="E64" t="n">
-        <v>1.21327191096534</v>
+        <v>-0.5059314930818177</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6754452835214781</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.3460361866179966</v>
+        <v>-0.04739326711224398</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Posaconazole_1H10</t>
-        </is>
-      </c>
-      <c r="B65" s="1" t="n">
-        <v>1</v>
+          <t>Toremifene_2A04</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.848005803198963</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.4167670595997987</v>
+        <v>1.553566358732666</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.2884469676118201</v>
+        <v>0.3011204866937338</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.3525941381496845</v>
+        <v>-0.6449388859285471</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1478381953726348</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-0.3115240433926302</v>
+        <v>0.6054652206687836</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Pyronaridine_1H11</t>
-        </is>
-      </c>
-      <c r="B66" s="1" t="n">
-        <v>1</v>
+          <t>Doxorubicin_2A05</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.582689430870067</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3421200317115715</v>
+        <v>1.69285412561728</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3151638411122483</v>
+        <v>2.318877970724504</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5322546795244764</v>
+        <v>-0.4036826331240014</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3592252271906948</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.2763827268425114</v>
+        <v>0.04562341668289053</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Fluspirilene_2A02</t>
-        </is>
-      </c>
-      <c r="B67" s="1" t="n">
-        <v>1</v>
+          <t>Rapamycin_2A06</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>1.980835560299017</v>
       </c>
       <c r="C67" t="n">
-        <v>1.019317176219537</v>
+        <v>1.636301999943412</v>
       </c>
       <c r="D67" t="n">
-        <v>1.973727415020475</v>
+        <v>0.9667469892707061</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6527331475565089</v>
+        <v>-0.04246258411874495</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.3698877385020448</v>
-      </c>
-      <c r="G67" t="n">
-        <v>-0.1328200049249257</v>
+        <v>0.2706380710516423</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Tetracycline_2A03</t>
-        </is>
-      </c>
-      <c r="B68" s="1" t="n">
-        <v>1</v>
+          <t>Ponatinib_2A07</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>3.455874049800997</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7310339996588116</v>
+        <v>1.181033112795676</v>
       </c>
       <c r="D68" t="n">
-        <v>1.246474948693456</v>
+        <v>0.7237959861816412</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5455517143543739</v>
+        <v>2.953464044545905</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.5059314930818177</v>
-      </c>
-      <c r="G68" t="n">
-        <v>-0.04739326711224398</v>
+        <v>1.880483824470353</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Toremifene_2A04</t>
-        </is>
-      </c>
-      <c r="B69" s="1" t="n">
-        <v>1</v>
+          <t>Migalastat_2A08</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>-0.8680956197055555</v>
       </c>
       <c r="C69" t="n">
-        <v>0.848005803198963</v>
+        <v>0.8067310855201929</v>
       </c>
       <c r="D69" t="n">
-        <v>1.553566358732666</v>
+        <v>1.070751003830855</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3011204866937338</v>
+        <v>-0.8976338412714466</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6449388859285471</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.6054652206687836</v>
+        <v>-0.6847100653559318</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Doxorubicin_2A05</t>
-        </is>
-      </c>
-      <c r="B70" s="1" t="n">
-        <v>1</v>
+          <t>Berbamine_2A09</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.844254507254055</v>
       </c>
       <c r="C70" t="n">
-        <v>0.582689430870067</v>
+        <v>0.5132973959337389</v>
       </c>
       <c r="D70" t="n">
-        <v>1.69285412561728</v>
+        <v>0.9863026228251462</v>
       </c>
       <c r="E70" t="n">
-        <v>2.318877970724504</v>
+        <v>0.4013387120640427</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.4036826331240014</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.04562341668289053</v>
+        <v>-0.1310063982274389</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Rapamycin_2A06</t>
-        </is>
-      </c>
-      <c r="B71" s="1" t="n">
-        <v>1</v>
+          <t>Metformin_2A10</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>-0.4482017865625188</v>
       </c>
       <c r="C71" t="n">
-        <v>1.980835560299017</v>
+        <v>0.6696506015082332</v>
       </c>
       <c r="D71" t="n">
-        <v>1.636301999943412</v>
+        <v>0.2538269596360728</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9667469892707061</v>
+        <v>-0.9788002281473533</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.04246258411874495</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.2706380710516423</v>
+        <v>0.3652841574363483</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Ponatinib_2A07</t>
-        </is>
-      </c>
-      <c r="B72" s="1" t="n">
-        <v>1</v>
+          <t>Fluconazole_2A11</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>-0.03929861119502392</v>
       </c>
       <c r="C72" t="n">
-        <v>3.422810170486516</v>
+        <v>0.12293177388462</v>
       </c>
       <c r="D72" t="n">
-        <v>1.227398021486498</v>
+        <v>-0.2862396019889848</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8213114695375555</v>
+        <v>-0.1894580208616954</v>
       </c>
       <c r="F72" t="n">
-        <v>3.189095572170363</v>
-      </c>
-      <c r="G72" t="n">
-        <v>2.104018412440738</v>
+        <v>0.2953949594649812</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="n">
-        <v>0.5</v>
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Lumefantrine_2B02</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.006909238981839361</v>
       </c>
       <c r="C73" t="n">
-        <v>2.965589284662683</v>
+        <v>0.5130996563059044</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6118897652286631</v>
+        <v>-0.3467530794118719</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.471652122938637</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>2.651171122267077</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.03107425070651785</v>
+        <v>-0.7770078643026381</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Migalastat_2A08</t>
-        </is>
-      </c>
-      <c r="B74" s="1" t="n">
-        <v>1</v>
+          <t>Anidulafungin_2B03</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.6340023345127528</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.8680956197055555</v>
+        <v>0.6662827277040475</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8067310855201929</v>
+        <v>0.3813178980120154</v>
       </c>
       <c r="E74" t="n">
-        <v>1.070751003830855</v>
+        <v>-0.1667383274409223</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.8976338412714466</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-0.6847100653559318</v>
+        <v>-0.3914116671077003</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Berbamine_2A09</t>
-        </is>
-      </c>
-      <c r="B75" s="1" t="n">
-        <v>1</v>
+          <t>Hanfangchin B_2B04</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.1061115175179007</v>
       </c>
       <c r="C75" t="n">
-        <v>0.844254507254055</v>
+        <v>0.2942555758736568</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5132973959337389</v>
+        <v>0.3481590519806581</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9863026228251462</v>
+        <v>-0.2687982821395284</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4013387120640427</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-0.1310063982274389</v>
+        <v>-0.3391089848735752</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Metformin_2A10</t>
-        </is>
-      </c>
-      <c r="B76" s="1" t="n">
-        <v>1</v>
+          <t>Entacapone_2B05</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.3354722639356575</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.4482017865625188</v>
+        <v>1.539956285494933</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6696506015082332</v>
+        <v>-0.2339779694010925</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2538269596360728</v>
+        <v>0.1323901041632216</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9788002281473533</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.3652841574363483</v>
+        <v>0.01151300699163319</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Fluconazole_2A11</t>
-        </is>
-      </c>
-      <c r="B77" s="1" t="n">
-        <v>1</v>
+          <t>Thiethylperazine_2B06</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.6706163101935612</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.03929861119502392</v>
+        <v>0.6453561889040793</v>
       </c>
       <c r="D77" t="n">
-        <v>0.12293177388462</v>
+        <v>0.3409890973450337</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.2862396019889848</v>
+        <v>0.2988097913991211</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.1894580208616954</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.2953949594649812</v>
+        <v>0.5018060398901646</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Lumefantrine_2B02</t>
-        </is>
-      </c>
-      <c r="B78" s="1" t="n">
-        <v>1</v>
+          <t>Tacrolimus_2B07</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.492832401460527</v>
       </c>
       <c r="C78" t="n">
-        <v>0.006909238981839361</v>
+        <v>1.548190685448708</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5130996563059044</v>
+        <v>-0.992915875926738</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.3467530794118719</v>
+        <v>-0.2904994500949469</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>-0.7770078643026381</v>
+        <v>0.1642847996357376</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Anidulafungin_2B03</t>
-        </is>
-      </c>
-      <c r="B79" s="1" t="n">
-        <v>1</v>
+          <t>Dabrafenib_2B08</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.341434903842817</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6340023345127528</v>
+        <v>-0.195828479644841</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6662827277040475</v>
+        <v>-0.4368031806036623</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3813178980120154</v>
+        <v>-0.08187218500672233</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.1667383274409223</v>
-      </c>
-      <c r="G79" t="n">
-        <v>-0.3914116671077003</v>
+        <v>-1.029549478256268</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Hanfangchin B_2B04</t>
-        </is>
-      </c>
-      <c r="B80" s="1" t="n">
-        <v>1</v>
+          <t>Dapivirine_2B09</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.09892155345879293</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1061115175179007</v>
+        <v>0.2102096865432195</v>
       </c>
       <c r="D80" t="n">
-        <v>0.2942555758736568</v>
+        <v>-0.2521772070213184</v>
       </c>
       <c r="E80" t="n">
-        <v>0.3481590519806581</v>
+        <v>-0.233251514127111</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.2687982821395284</v>
-      </c>
-      <c r="G80" t="n">
-        <v>-0.3391089848735752</v>
+        <v>-0.5956369743974307</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Entacapone_2B05</t>
-        </is>
-      </c>
-      <c r="B81" s="1" t="n">
-        <v>1</v>
+          <t>Mycophenolic acid_2B10</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.2585981131763394</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3354722639356575</v>
+        <v>-0.08784174240828814</v>
       </c>
       <c r="D81" t="n">
-        <v>1.539956285494933</v>
+        <v>-0.8352223382876947</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.2339779694010925</v>
+        <v>0.2988097913991211</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1323901041632216</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.01151300699163319</v>
+        <v>-0.271742079130962</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Thiethylperazine_2B06</t>
-        </is>
-      </c>
-      <c r="B82" s="1" t="n">
-        <v>1</v>
+          <t>Tenofovir_2B11</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.4902911907497612</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6706163101935612</v>
+        <v>-0.3372511324883851</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6453561889040793</v>
+        <v>-0.7559168933383246</v>
       </c>
       <c r="E82" t="n">
-        <v>0.3409890973450337</v>
+        <v>-0.1843692899617538</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2988097913991211</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.5018060398901646</v>
+        <v>-0.2488909222818969</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Tacrolimus_2B07</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="n">
-        <v>1</v>
+          <t>Silmitasertib_2C02</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.2672952775271215</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3858689130352065</v>
+        <v>0.2570928750238181</v>
       </c>
       <c r="D83" t="n">
-        <v>1.525793492200576</v>
+        <v>0.4959528798715788</v>
       </c>
       <c r="E83" t="n">
-        <v>-1.135374768943403</v>
+        <v>0.4002949212985332</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.4205899502840726</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.2892154380743709</v>
+        <v>0.6673778533624294</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n"/>
-      <c r="B84" s="1" t="n">
-        <v>0.5</v>
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Oxyclozanide_2C03</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.8953034812131799</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5464527907055573</v>
+        <v>0.7885473355310182</v>
       </c>
       <c r="D84" t="n">
-        <v>3.162624636575767</v>
+        <v>-0.7012047685290097</v>
       </c>
       <c r="E84" t="n">
-        <v>-2.646181325215634</v>
+        <v>-0.7249147404695011</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5807006857267467</v>
-      </c>
-      <c r="G84" t="n">
-        <v>-0.3919834388894557</v>
+        <v>0.5111020021621254</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Dabrafenib_2B08</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="n">
-        <v>1</v>
+          <t>Digitoxin_2C04</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.3233144047785247</v>
       </c>
       <c r="C85" t="n">
-        <v>0.341434903842817</v>
+        <v>0.9342858662016483</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.195828479644841</v>
+        <v>0.01991898905102065</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.4368031806036623</v>
+        <v>0.2527418100922267</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.08187218500672233</v>
-      </c>
-      <c r="G85" t="n">
-        <v>-1.029549478256268</v>
+        <v>0.3840990976513079</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Dapivirine_2B09</t>
-        </is>
-      </c>
-      <c r="B86" s="1" t="n">
-        <v>1</v>
+          <t>Chlormidazole_2C05</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.9122138203544664</v>
       </c>
       <c r="C86" t="n">
-        <v>0.09892155345879293</v>
+        <v>1.370237549824351</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2102096865432195</v>
+        <v>0.4869244750213653</v>
       </c>
       <c r="E86" t="n">
-        <v>-0.2521772070213184</v>
+        <v>0.05315491888481629</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.233251514127111</v>
-      </c>
-      <c r="G86" t="n">
-        <v>-0.5956369743974307</v>
+        <v>0.2983075352347824</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Mycophenolic acid_2B10</t>
-        </is>
-      </c>
-      <c r="B87" s="1" t="n">
-        <v>1</v>
+          <t>Proscillaridin_2C06</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.3339626170428244</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2585981131763394</v>
+        <v>0.5058405920428319</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.08784174240828814</v>
+        <v>0.03334019909455333</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.8352223382876947</v>
+        <v>-0.3865140237683005</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2988097913991211</v>
-      </c>
-      <c r="G87" t="n">
-        <v>-0.271742079130962</v>
+        <v>0.2532385343416276</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Tenofovir_2B11</t>
-        </is>
-      </c>
-      <c r="B88" s="1" t="n">
-        <v>1</v>
+          <t>Dutacatib_2C07</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.9175082974036155</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4902911907497612</v>
+        <v>1.077259083488052</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.3372511324883851</v>
+        <v>-0.3750972359503249</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.7559168933383246</v>
+        <v>0.4781359437885085</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.1843692899617538</v>
-      </c>
-      <c r="G88" t="n">
-        <v>-0.2488909222818969</v>
+        <v>0.6109360403486057</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Silmitasertib_2C02</t>
-        </is>
-      </c>
-      <c r="B89" s="1" t="n">
-        <v>1</v>
+          <t>PB 28_2C08</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>1.034781958863794</v>
       </c>
       <c r="C89" t="n">
-        <v>0.2672952775271215</v>
+        <v>-0.06673756047182407</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2570928750238181</v>
+        <v>-0.01064595785796109</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4959528798715788</v>
+        <v>0.2262536511687318</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4002949212985332</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.6673778533624294</v>
+        <v>1.383760352247297</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Oxyclozanide_2C03</t>
-        </is>
-      </c>
-      <c r="B90" s="1" t="n">
-        <v>1</v>
+          <t>Baricitinib_2C09</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.3334735615859174</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8953034812131799</v>
+        <v>0.09976087651276035</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7885473355310182</v>
+        <v>0.1977098357455362</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.7012047685290097</v>
+        <v>0.4736232491392236</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7249147404695011</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.5111020021621254</v>
+        <v>0.9597580748122765</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Digitoxin_2C04</t>
-        </is>
-      </c>
-      <c r="B91" s="1" t="n">
-        <v>1</v>
+          <t>Eszopiclone_2C10</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.2153591765468877</v>
       </c>
       <c r="C91" t="n">
-        <v>0.3233144047785247</v>
+        <v>0.1953579099689514</v>
       </c>
       <c r="D91" t="n">
-        <v>0.9342858662016483</v>
+        <v>0.2879427497230591</v>
       </c>
       <c r="E91" t="n">
-        <v>0.01991898905102065</v>
+        <v>0.3762779415807948</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2527418100922267</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.3840990976513079</v>
+        <v>0.3124221387866574</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>Chlormidazole_2C05</t>
-        </is>
-      </c>
-      <c r="B92" s="1" t="n">
-        <v>1</v>
+          <t>(+)-Mefloquine_2C11</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.4099613897393544</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9122138203544664</v>
+        <v>0.05512758234554321</v>
       </c>
       <c r="D92" t="n">
-        <v>1.370237549824351</v>
+        <v>-0.5484898774894539</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4869244750213653</v>
+        <v>-0.4627293315308102</v>
       </c>
       <c r="F92" t="n">
-        <v>0.05315491888481629</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.2983075352347824</v>
+        <v>0.3202380209369637</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Proscillaridin_2C06</t>
-        </is>
-      </c>
-      <c r="B93" s="1" t="n">
-        <v>1</v>
+          <t>Salinomycin_2D02</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.09652661442762993</v>
       </c>
       <c r="C93" t="n">
-        <v>0.3339626170428244</v>
+        <v>1.074836948646219</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5058405920428319</v>
+        <v>-0.06783168457116165</v>
       </c>
       <c r="E93" t="n">
-        <v>0.03334019909455333</v>
+        <v>0.7936507936507958</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3865140237683005</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.2532385343416276</v>
+        <v>-0.1364535667144305</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>Dutacatib_2C07</t>
-        </is>
-      </c>
-      <c r="B94" s="1" t="n">
-        <v>1</v>
+          <t>JQ 1_2D03</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.2517305894467072</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9175082974036155</v>
+        <v>1.658266337947665</v>
       </c>
       <c r="D94" t="n">
-        <v>1.077259083488052</v>
+        <v>0.7969352294306613</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.3750972359503249</v>
+        <v>0.547722022620642</v>
       </c>
       <c r="F94" t="n">
-        <v>0.4781359437885085</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.6109360403486057</v>
+        <v>-0.05354138217017694</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>PB 28_2C08</t>
-        </is>
-      </c>
-      <c r="B95" s="1" t="n">
-        <v>1</v>
+          <t>RVX 208_2D04</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.5349663588346733</v>
       </c>
       <c r="C95" t="n">
-        <v>1.034781958863794</v>
+        <v>0.667125407502944</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.06673756047182407</v>
+        <v>0.572677207923863</v>
       </c>
       <c r="E95" t="n">
-        <v>-0.01064595785796109</v>
+        <v>0.2060303455024319</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2262536511687318</v>
-      </c>
-      <c r="G95" t="n">
-        <v>1.383760352247297</v>
+        <v>-0.494018490733545</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Baricitinib_2C09</t>
-        </is>
-      </c>
-      <c r="B96" s="1" t="n">
-        <v>1</v>
+          <t>Osimertinib_2D05</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.2679128675605904</v>
       </c>
       <c r="C96" t="n">
-        <v>0.3334735615859174</v>
+        <v>1.72615438103991</v>
       </c>
       <c r="D96" t="n">
-        <v>0.09976087651276035</v>
+        <v>0.05785739270409107</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1977098357455362</v>
+        <v>0.370013661850389</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4736232491392236</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.9597580748122765</v>
+        <v>-0.1482603319668206</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Eszopiclone_2C10</t>
-        </is>
-      </c>
-      <c r="B97" s="1" t="n">
-        <v>1</v>
+          <t>Cloperastine_2D06</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>-0.4408728725007952</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2153591765468877</v>
+        <v>0.1421909173046896</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1953579099689514</v>
+        <v>-0.2335049442654742</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2879427497230591</v>
+        <v>0.6447260162981571</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3762779415807948</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.3124221387866574</v>
+        <v>0.4927448551002039</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>(+)-Mefloquine_2C11</t>
-        </is>
-      </c>
-      <c r="B98" s="1" t="n">
-        <v>1</v>
+          <t>Clemastine_2D07</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>-0.2988713057164959</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4099613897393544</v>
+        <v>1.253097932553342</v>
       </c>
       <c r="D98" t="n">
-        <v>0.05512758234554321</v>
+        <v>0.5415541296666849</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.5484898774894539</v>
+        <v>0.5275101046754855</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.4627293315308102</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.3202380209369637</v>
+        <v>0.5669316318647045</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Salinomycin_2D02</t>
-        </is>
-      </c>
-      <c r="B99" s="1" t="n">
-        <v>1</v>
+          <t>Merimepodib_2D08</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>-0.8955294965034356</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.09652661442762993</v>
+        <v>0.8140667417451972</v>
       </c>
       <c r="D99" t="n">
-        <v>1.074836948646219</v>
+        <v>0.5954767010536192</v>
       </c>
       <c r="E99" t="n">
-        <v>-0.06783168457116165</v>
+        <v>0.3035501230055592</v>
       </c>
       <c r="F99" t="n">
-        <v>0.7936507936507958</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-0.1364535667144305</v>
+        <v>0.2629665793285213</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>JQ 1_2D03</t>
-        </is>
-      </c>
-      <c r="B100" s="1" t="n">
-        <v>1</v>
+          <t>E 52862_2D09</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>-0.4246030482930254</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.2517305894467072</v>
+        <v>0.6543468618373667</v>
       </c>
       <c r="D100" t="n">
-        <v>1.658266337947665</v>
+        <v>0.9507818398708286</v>
       </c>
       <c r="E100" t="n">
-        <v>0.7969352294306613</v>
+        <v>1.000429964645507</v>
       </c>
       <c r="F100" t="n">
-        <v>0.547722022620642</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-0.05354138217017694</v>
+        <v>0.2910460567010744</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>RVX 208_2D04</t>
-        </is>
-      </c>
-      <c r="B101" s="1" t="n">
-        <v>1</v>
+          <t>Doravirine_2D10</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>-0.5904865748805408</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.5349663588346733</v>
+        <v>0.4893999048027023</v>
       </c>
       <c r="D101" t="n">
-        <v>0.667125407502944</v>
+        <v>0.3385281320581819</v>
       </c>
       <c r="E101" t="n">
-        <v>0.572677207923863</v>
+        <v>0.1828829399709043</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2060303455024319</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-0.494018490733545</v>
+        <v>-0.3456175589572391</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Osimertinib_2D05</t>
-        </is>
-      </c>
-      <c r="B102" s="1" t="n">
-        <v>1</v>
+          <t>Cycloheximide_2D11</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>-0.3692139522807429</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2679128675605904</v>
+        <v>-0.5956044424283533</v>
       </c>
       <c r="D102" t="n">
-        <v>1.72615438103991</v>
+        <v>-0.2643764880226485</v>
       </c>
       <c r="E102" t="n">
-        <v>0.05785739270409107</v>
+        <v>-0.110660714042363</v>
       </c>
       <c r="F102" t="n">
-        <v>0.370013661850389</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-0.1482603319668206</v>
+        <v>-0.1443352503837751</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Cloperastine_2D06</t>
-        </is>
-      </c>
-      <c r="B103" s="1" t="n">
-        <v>1</v>
+          <t>Umifenovir_2E02</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.6585080215110792</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.4408728725007952</v>
+        <v>0.2197759238047964</v>
       </c>
       <c r="D103" t="n">
-        <v>0.1421909173046896</v>
+        <v>0.3127824750685523</v>
       </c>
       <c r="E103" t="n">
-        <v>-0.2335049442654742</v>
+        <v>0.09824018443365425</v>
       </c>
       <c r="F103" t="n">
-        <v>0.6447260162981571</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.4927448551002039</v>
+        <v>1.004351786098256</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>Clemastine_2D07</t>
-        </is>
-      </c>
-      <c r="B104" s="1" t="n">
-        <v>1</v>
+          <t>MRT 68601_2E03</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0.2913807826374228</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.2988713057164959</v>
+        <v>0.4267314648922041</v>
       </c>
       <c r="D104" t="n">
-        <v>1.253097932553342</v>
+        <v>-0.7073239907201877</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5415541296666849</v>
+        <v>0.5116336279526205</v>
       </c>
       <c r="F104" t="n">
-        <v>0.5275101046754855</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.5669316318647045</v>
+        <v>0.5024501135995887</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>Merimepodib_2D08</t>
-        </is>
-      </c>
-      <c r="B105" s="1" t="n">
-        <v>1</v>
+          <t>PD 144418_2E04</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>-0.05066329767472183</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.8955294965034356</v>
+        <v>-0.1458409803829435</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8140667417451972</v>
+        <v>0.3036231070569124</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5954767010536192</v>
+        <v>-0.1261172211582762</v>
       </c>
       <c r="F105" t="n">
-        <v>0.3035501230055592</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.2629665793285213</v>
+        <v>0.428263088700549</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>E 52862_2D09</t>
-        </is>
-      </c>
-      <c r="B106" s="1" t="n">
-        <v>1</v>
+          <t>(RS)-PPCC_2E05</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.4316928732803862</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.4246030482930254</v>
+        <v>1.262307026181118</v>
       </c>
       <c r="D106" t="n">
-        <v>0.6543468618373667</v>
+        <v>-0.4000570727626842</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9507818398708286</v>
+        <v>0.280841821247422</v>
       </c>
       <c r="F106" t="n">
-        <v>1.000429964645507</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.2910460567010744</v>
+        <v>0.1634673654627281</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>Doravirine_2D10</t>
-        </is>
-      </c>
-      <c r="B107" s="1" t="n">
-        <v>1</v>
+          <t>AZ3451_2E06</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0.1386537771005604</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.5904865748805408</v>
+        <v>0.03869396310380725</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4893999048027023</v>
+        <v>0.4719994715700592</v>
       </c>
       <c r="E107" t="n">
-        <v>0.3385281320581819</v>
+        <v>0.1058541748209587</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1828829399709043</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-0.3456175589572391</v>
+        <v>0.293722589603736</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>Cycloheximide_2D11</t>
-        </is>
-      </c>
-      <c r="B108" s="1" t="n">
-        <v>1</v>
+          <t>ZINC4326719_2E07</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0.5061905789190082</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.3692139522807429</v>
+        <v>0.05915153289022421</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.5956044424283533</v>
+        <v>0.1015566984860422</v>
       </c>
       <c r="E108" t="n">
-        <v>-0.2643764880226485</v>
+        <v>0.3715686546178506</v>
       </c>
       <c r="F108" t="n">
-        <v>-0.110660714042363</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-0.1443352503837751</v>
+        <v>0.6809428330404386</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Umifenovir_2E02</t>
-        </is>
-      </c>
-      <c r="B109" s="1" t="n">
-        <v>1</v>
+          <t>Losartan_2E08</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0.6255016903149146</v>
       </c>
       <c r="C109" t="n">
-        <v>0.6585080215110792</v>
+        <v>0.1484553023976579</v>
       </c>
       <c r="D109" t="n">
-        <v>0.2197759238047964</v>
+        <v>-0.4502507949254376</v>
       </c>
       <c r="E109" t="n">
-        <v>0.3127824750685523</v>
+        <v>0.613960353543148</v>
       </c>
       <c r="F109" t="n">
-        <v>0.09824018443365425</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1.004351786098256</v>
+        <v>0.6035282968606622</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>MRT 68601_2E03</t>
-        </is>
-      </c>
-      <c r="B110" s="1" t="n">
-        <v>1</v>
+          <t>Nifedipine_2E09</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.1433994966280732</v>
       </c>
       <c r="C110" t="n">
-        <v>0.2913807826374228</v>
+        <v>-0.1712186038097962</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4267314648922041</v>
+        <v>-0.7454144453312614</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.7073239907201877</v>
+        <v>0.9035079029052512</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5116336279526205</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.5024501135995887</v>
+        <v>0.3816451942230944</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>PD 144418_2E04</t>
-        </is>
-      </c>
-      <c r="B111" s="1" t="n">
-        <v>1</v>
+          <t>Anagliptin_2E10</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.218705674362863</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.05066329767472183</v>
+        <v>0.6251167651315508</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.1458409803829435</v>
+        <v>-0.09217243325647288</v>
       </c>
       <c r="E111" t="n">
-        <v>0.3036231070569124</v>
+        <v>0.2109445743711431</v>
       </c>
       <c r="F111" t="n">
-        <v>-0.1261172211582762</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.428263088700549</v>
+        <v>0.6168512931511323</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>(RS)-PPCC_2E05</t>
-        </is>
-      </c>
-      <c r="B112" s="1" t="n">
-        <v>1</v>
+          <t>Desmethyl ferroquine_2E11</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.6032183742123893</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4316928732803862</v>
+        <v>-0.3323697281373301</v>
       </c>
       <c r="D112" t="n">
-        <v>1.262307026181118</v>
+        <v>0.07444500130879564</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.4000570727626842</v>
+        <v>-0.1450550888771504</v>
       </c>
       <c r="F112" t="n">
-        <v>0.280841821247422</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.1634673654627281</v>
+        <v>0.5041905971495816</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>AZ3451_2E06</t>
-        </is>
-      </c>
-      <c r="B113" s="1" t="n">
-        <v>1</v>
+          <t>Nebivolol_2F02</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.3850784438399009</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1386537771005604</v>
+        <v>1.489566345039069</v>
       </c>
       <c r="D113" t="n">
-        <v>0.03869396310380725</v>
+        <v>0.156222615926851</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4719994715700592</v>
+        <v>0.2438389853198193</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1058541748209587</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.293722589603736</v>
+        <v>-0.005181325874091085</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>ZINC4326719_2E07</t>
-        </is>
-      </c>
-      <c r="B114" s="1" t="n">
-        <v>1</v>
+          <t>Aprepitant_2F03</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.1552993261610731</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5061905789190082</v>
+        <v>0.9414726907504831</v>
       </c>
       <c r="D114" t="n">
-        <v>0.05915153289022421</v>
+        <v>0.4576303143304738</v>
       </c>
       <c r="E114" t="n">
-        <v>0.1015566984860422</v>
+        <v>0.2219087132138244</v>
       </c>
       <c r="F114" t="n">
-        <v>0.3715686546178506</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.6809428330404386</v>
+        <v>0.6665106402866751</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Losartan_2E08</t>
-        </is>
-      </c>
-      <c r="B115" s="1" t="n">
-        <v>1</v>
+          <t>Danusertib_2F04</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>-0.3544392006031355</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6255016903149146</v>
+        <v>0.7308128172278974</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1484553023976579</v>
+        <v>0.3462468748136734</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.4502507949254376</v>
+        <v>0.6945646652809299</v>
       </c>
       <c r="F115" t="n">
-        <v>0.613960353543148</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.6035282968606622</v>
+        <v>0.5622616239502576</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Nifedipine_2E09</t>
-        </is>
-      </c>
-      <c r="B116" s="1" t="n">
-        <v>1</v>
+          <t>Apremilast_2F05</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>-0.692751163383828</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1433994966280732</v>
+        <v>1.003385579547433</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.1712186038097962</v>
+        <v>1.183413793264901</v>
       </c>
       <c r="E116" t="n">
-        <v>-0.7454144453312614</v>
+        <v>0.2849158954471266</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9035079029052512</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.3816451942230944</v>
+        <v>0.2600330130365278</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>Anagliptin_2E10</t>
-        </is>
-      </c>
-      <c r="B117" s="1" t="n">
-        <v>1</v>
+          <t>(-)-Anisomycin_2F06</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>-0.7769692101225927</v>
       </c>
       <c r="C117" t="n">
-        <v>0.218705674362863</v>
+        <v>0.8941331773896224</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6251167651315508</v>
+        <v>0.5092639494158062</v>
       </c>
       <c r="E117" t="n">
-        <v>-0.09217243325647288</v>
+        <v>1.287854102443455</v>
       </c>
       <c r="F117" t="n">
-        <v>0.2109445743711431</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.6168512931511323</v>
+        <v>0.4923322552512742</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Desmethyl ferroquine_2E11</t>
-        </is>
-      </c>
-      <c r="B118" s="1" t="n">
-        <v>1</v>
+          <t>Idelalisib_2F07</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>-0.229844992870661</v>
       </c>
       <c r="C118" t="n">
-        <v>0.6032183742123893</v>
+        <v>0.5956046595000867</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.3323697281373301</v>
+        <v>-0.04270933233444169</v>
       </c>
       <c r="E118" t="n">
-        <v>0.07444500130879564</v>
+        <v>0.1694855792787662</v>
       </c>
       <c r="F118" t="n">
-        <v>-0.1450550888771504</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.5041905971495816</v>
+        <v>0.861194186309551</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Nebivolol_2F02</t>
-        </is>
-      </c>
-      <c r="B119" s="1" t="n">
-        <v>1</v>
+          <t>Darifenacin_2F08</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>-0.5161635144958571</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.3850784438399009</v>
+        <v>0.9230704673310187</v>
       </c>
       <c r="D119" t="n">
-        <v>1.489566345039069</v>
+        <v>-0.3872608150719614</v>
       </c>
       <c r="E119" t="n">
-        <v>0.156222615926851</v>
+        <v>0.3071884803941026</v>
       </c>
       <c r="F119" t="n">
-        <v>0.2438389853198193</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-0.005181325874091085</v>
+        <v>0.4272145637028697</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Aprepitant_2F03</t>
-        </is>
-      </c>
-      <c r="B120" s="1" t="n">
-        <v>1</v>
+          <t>Spectinomycin_2F09</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>-0.0151285267748008</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1552993261610731</v>
+        <v>0.659323351658601</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9414726907504831</v>
+        <v>0.7887193898137098</v>
       </c>
       <c r="E120" t="n">
-        <v>0.4576303143304738</v>
+        <v>0.02892509320631396</v>
       </c>
       <c r="F120" t="n">
-        <v>0.2219087132138244</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.6665106402866751</v>
+        <v>-0.07529549067902959</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Danusertib_2F04</t>
-        </is>
-      </c>
-      <c r="B121" s="1" t="n">
-        <v>1</v>
+          <t>Oxatomide_2F10</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-0.06906758330061992</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.3544392006031355</v>
+        <v>0.6786496944165971</v>
       </c>
       <c r="D121" t="n">
-        <v>0.7308128172278974</v>
+        <v>0.1089822978587334</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3462468748136734</v>
+        <v>0.0843442748133436</v>
       </c>
       <c r="F121" t="n">
-        <v>0.6945646652809299</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.5622616239502576</v>
+        <v>0.00985777592913002</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Apremilast_2F05</t>
-        </is>
-      </c>
-      <c r="B122" s="1" t="n">
-        <v>1</v>
+          <t>Promethazine_2F11</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>-0.6771872956982844</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.692751163383828</v>
+        <v>0.4570487404531813</v>
       </c>
       <c r="D122" t="n">
-        <v>1.003385579547433</v>
+        <v>-0.2161079192522994</v>
       </c>
       <c r="E122" t="n">
-        <v>1.183413793264901</v>
+        <v>-0.1350627026420174</v>
       </c>
       <c r="F122" t="n">
-        <v>0.2849158954471266</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.2600330130365278</v>
+        <v>0.144138731151087</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>(-)-Anisomycin_2F06</t>
-        </is>
-      </c>
-      <c r="B123" s="1" t="n">
-        <v>1</v>
+          <t>Veliparib_2G02</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.08089929676016046</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.7769692101225927</v>
+        <v>0.9687817946214858</v>
       </c>
       <c r="D123" t="n">
-        <v>0.8941331773896224</v>
+        <v>-0.2586224025386659</v>
       </c>
       <c r="E123" t="n">
-        <v>0.5092639494158062</v>
+        <v>0.3071884803941026</v>
       </c>
       <c r="F123" t="n">
-        <v>1.287854102443455</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.4923322552512742</v>
+        <v>-0.6304420833854049</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Idelalisib_2F07</t>
-        </is>
-      </c>
-      <c r="B124" s="1" t="n">
-        <v>1</v>
+          <t>Celecoxib_2G03</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>1.016722201511969</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.229844992870661</v>
+        <v>1.044057617674024</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5956046595000867</v>
+        <v>-0.06954866950450259</v>
       </c>
       <c r="E124" t="n">
-        <v>-0.04270933233444169</v>
+        <v>0.03854600581982094</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1694855792787662</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.861194186309551</v>
+        <v>-0.1030071467905806</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Darifenacin_2F08</t>
-        </is>
-      </c>
-      <c r="B125" s="1" t="n">
-        <v>1</v>
+          <t>Cabozantinib_2G04</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2.279282716947234</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.5161635144958571</v>
+        <v>2.416540839481496</v>
       </c>
       <c r="D125" t="n">
-        <v>0.9230704673310187</v>
+        <v>1.462013946865227</v>
       </c>
       <c r="E125" t="n">
-        <v>-0.3872608150719614</v>
+        <v>43.08979735711578</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3071884803941026</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.4272145637028697</v>
+        <v>1.774106005950766</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Spectinomycin_2F09</t>
-        </is>
-      </c>
-      <c r="B126" s="1" t="n">
-        <v>1</v>
+          <t>Selumetinib_2G05</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.4511180299456379</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.0151285267748008</v>
+        <v>1.214685679154816</v>
       </c>
       <c r="D126" t="n">
-        <v>0.659323351658601</v>
+        <v>-0.2077231163768555</v>
       </c>
       <c r="E126" t="n">
-        <v>0.7887193898137098</v>
+        <v>-0.3328630698207365</v>
       </c>
       <c r="F126" t="n">
-        <v>0.02892509320631396</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-0.07529549067902959</v>
+        <v>-0.01133413589825137</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Oxatomide_2F10</t>
-        </is>
-      </c>
-      <c r="B127" s="1" t="n">
-        <v>1</v>
+          <t>Bortezomib_2G06</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.03894805900580724</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.06906758330061992</v>
+        <v>0.627859187312769</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6786496944165971</v>
+        <v>-0.1611125903650019</v>
       </c>
       <c r="E127" t="n">
-        <v>0.1089822978587334</v>
+        <v>-0.1122824988416931</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0843442748133436</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.00985777592913002</v>
+        <v>0.4036498916550469</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Promethazine_2F11</t>
-        </is>
-      </c>
-      <c r="B128" s="1" t="n">
-        <v>1</v>
+          <t>Pimozide_2G07</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>3.646085990237541</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.6771872956982844</v>
+        <v>3.236277253352015</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4570487404531813</v>
+        <v>2.25626071974692</v>
       </c>
       <c r="E128" t="n">
-        <v>-0.2161079192522994</v>
+        <v>0.6424147737955413</v>
       </c>
       <c r="F128" t="n">
-        <v>-0.1350627026420174</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.144138731151087</v>
+        <v>1.376559946877759</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Veliparib_2G02</t>
-        </is>
-      </c>
-      <c r="B129" s="1" t="n">
-        <v>1</v>
+          <t>Sertindole_2G08</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.9754641783635108</v>
       </c>
       <c r="C129" t="n">
-        <v>0.08089929676016046</v>
+        <v>0.8512481784529907</v>
       </c>
       <c r="D129" t="n">
-        <v>0.9687817946214858</v>
+        <v>-0.3265048020037811</v>
       </c>
       <c r="E129" t="n">
-        <v>-0.2586224025386659</v>
+        <v>0.3071884803941026</v>
       </c>
       <c r="F129" t="n">
-        <v>0.3071884803941026</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-0.6304420833854049</v>
+        <v>0.186887063023268</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Celecoxib_2G03</t>
-        </is>
-      </c>
-      <c r="B130" s="1" t="n">
-        <v>1</v>
+          <t>Boceprevir_2G09</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.5543390694323392</v>
       </c>
       <c r="C130" t="n">
-        <v>1.016722201511969</v>
+        <v>0.3926520405062622</v>
       </c>
       <c r="D130" t="n">
-        <v>1.044057617674024</v>
+        <v>0.1268252064279255</v>
       </c>
       <c r="E130" t="n">
-        <v>-0.06954866950450259</v>
+        <v>0.4339024074277691</v>
       </c>
       <c r="F130" t="n">
-        <v>0.03854600581982094</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-0.1030071467905806</v>
+        <v>0.5874194999650627</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Cabozantinib_2G04</t>
-        </is>
-      </c>
-      <c r="B131" s="1" t="n">
-        <v>1</v>
+          <t>Valdecoxib_2G10</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.960919911782232</v>
       </c>
       <c r="C131" t="n">
-        <v>2.099009745553036</v>
+        <v>0.8609098112000249</v>
       </c>
       <c r="D131" t="n">
-        <v>2.499359374072209</v>
+        <v>-0.2870073621577999</v>
       </c>
       <c r="E131" t="n">
-        <v>1.65008952434759</v>
+        <v>0.07148444048007735</v>
       </c>
       <c r="F131" t="n">
-        <v>43.06752049954208</v>
-      </c>
-      <c r="G131" t="n">
-        <v>2.052269882700525</v>
+        <v>0.3704210710254278</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n"/>
-      <c r="B132" s="1" t="n">
-        <v>0.5</v>
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>Paroxetine_2G11</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1.419297403982206</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5930906314466166</v>
+        <v>0.8790663545080891</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7114536720403377</v>
+        <v>-0.21541789776529</v>
       </c>
       <c r="E132" t="n">
-        <v>-1.190045289843536</v>
+        <v>0.0843442748133436</v>
       </c>
       <c r="F132" t="n">
-        <v>10.05589064538223</v>
-      </c>
-      <c r="G132" t="n">
-        <v>2.996350162880927</v>
+        <v>-0.04266088978160949</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>Selumetinib_2G05</t>
-        </is>
-      </c>
-      <c r="B133" s="1" t="n">
-        <v>1</v>
+          <t>Darunavir_2H02</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7614344483369869</v>
       </c>
       <c r="C133" t="n">
-        <v>0.4511180299456379</v>
+        <v>0.8506515534788358</v>
       </c>
       <c r="D133" t="n">
-        <v>1.214685679154816</v>
+        <v>0.8387703979414708</v>
       </c>
       <c r="E133" t="n">
-        <v>-0.2077231163768555</v>
+        <v>0.3450039729741172</v>
       </c>
       <c r="F133" t="n">
-        <v>-0.3328630698207365</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-0.01133413589825137</v>
+        <v>0.5092234911166754</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Bortezomib_2G06</t>
-        </is>
-      </c>
-      <c r="B134" s="1" t="n">
-        <v>1</v>
+          <t>Brequinar_2H03</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.9141444444123467</v>
       </c>
       <c r="C134" t="n">
-        <v>0.03894805900580724</v>
+        <v>1.239816617984475</v>
       </c>
       <c r="D134" t="n">
-        <v>0.627859187312769</v>
+        <v>-0.1529114326909232</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.1611125903650019</v>
+        <v>-0.1860665400050187</v>
       </c>
       <c r="F134" t="n">
-        <v>-0.1122824988416931</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.4036498916550469</v>
+        <v>0.501895977121079</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Pimozide_2G07</t>
-        </is>
-      </c>
-      <c r="B135" s="1" t="n">
-        <v>1</v>
+          <t>Delanzomib_2H04</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1.259777347296658</v>
       </c>
       <c r="C135" t="n">
-        <v>3.646085990237541</v>
+        <v>0.2413217849904095</v>
       </c>
       <c r="D135" t="n">
-        <v>3.236277253352015</v>
+        <v>2.133055634373233</v>
       </c>
       <c r="E135" t="n">
-        <v>2.25626071974692</v>
+        <v>0.3367175148507369</v>
       </c>
       <c r="F135" t="n">
-        <v>0.6424147737955413</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1.376559946877759</v>
+        <v>0.3034329270639842</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Sertindole_2G08</t>
-        </is>
-      </c>
-      <c r="B136" s="1" t="n">
-        <v>1</v>
+          <t>Delavirdine_2H05</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.1288828780343457</v>
       </c>
       <c r="C136" t="n">
-        <v>0.9754641783635108</v>
+        <v>0.6760435411410076</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8512481784529907</v>
+        <v>1.577450617151919</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.3265048020037811</v>
+        <v>-0.6597897316389021</v>
       </c>
       <c r="F136" t="n">
-        <v>0.3071884803941026</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.186887063023268</v>
+        <v>0.01364420615819004</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Boceprevir_2G09</t>
-        </is>
-      </c>
-      <c r="B137" s="1" t="n">
-        <v>1</v>
+          <t>Indinavir_2H06</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.5770680820932027</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5543390694323392</v>
+        <v>0.2614277567915518</v>
       </c>
       <c r="D137" t="n">
-        <v>0.3926520405062622</v>
+        <v>1.160389389016583</v>
       </c>
       <c r="E137" t="n">
-        <v>0.1268252064279255</v>
+        <v>0.1478381953726348</v>
       </c>
       <c r="F137" t="n">
-        <v>0.4339024074277691</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.5874194999650627</v>
+        <v>0.6839311090422162</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Valdecoxib_2G10</t>
-        </is>
-      </c>
-      <c r="B138" s="1" t="n">
-        <v>1</v>
+          <t>Abacavir_2H07</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.6809638530771598</v>
       </c>
       <c r="C138" t="n">
-        <v>0.960919911782232</v>
+        <v>-0.2164391570060572</v>
       </c>
       <c r="D138" t="n">
-        <v>0.8609098112000249</v>
+        <v>0.6277446517009383</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.2870073621577999</v>
+        <v>0.08439188631164854</v>
       </c>
       <c r="F138" t="n">
-        <v>0.07148444048007735</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.3704210710254278</v>
+        <v>0.8393340640549217</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Paroxetine_2G11</t>
-        </is>
-      </c>
-      <c r="B139" s="1" t="n">
-        <v>1</v>
+          <t>Chlorothiazide_2H08</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.8694953056038169</v>
       </c>
       <c r="C139" t="n">
-        <v>1.419297403982206</v>
+        <v>-0.1782135336029232</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8790663545080891</v>
+        <v>1.396491629413492</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.21541789776529</v>
+        <v>0.4445802183277949</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0843442748133436</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-0.04266088978160949</v>
+        <v>-0.2471907397595691</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Darunavir_2H02</t>
-        </is>
-      </c>
-      <c r="B140" s="1" t="n">
-        <v>1</v>
+          <t>Apixaban_2H09</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.8807152065720076</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7614344483369869</v>
+        <v>0.324372193233224</v>
       </c>
       <c r="D140" t="n">
-        <v>0.8506515534788358</v>
+        <v>1.128340277036985</v>
       </c>
       <c r="E140" t="n">
-        <v>0.8387703979414708</v>
+        <v>0.202574013223596</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3450039729741172</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.5092234911166754</v>
+        <v>-0.5981647487789064</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Brequinar_2H03</t>
-        </is>
-      </c>
-      <c r="B141" s="1" t="n">
-        <v>1</v>
+          <t>Naphtoquine_2H10</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.9173467630147369</v>
       </c>
       <c r="C141" t="n">
-        <v>0.9141444444123467</v>
+        <v>0.5476559494946777</v>
       </c>
       <c r="D141" t="n">
-        <v>1.239816617984475</v>
+        <v>1.318372343905543</v>
       </c>
       <c r="E141" t="n">
-        <v>-0.1529114326909232</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>-0.1860665400050187</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.501895977121079</v>
+        <v>1.437468374748648</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Delanzomib_2H04</t>
-        </is>
-      </c>
-      <c r="B142" s="1" t="n">
-        <v>1</v>
+          <t>Piperaquine_2H11</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.9873299362158625</v>
       </c>
       <c r="C142" t="n">
-        <v>1.259777347296658</v>
+        <v>0.06273620484779345</v>
       </c>
       <c r="D142" t="n">
-        <v>0.2413217849904095</v>
+        <v>0.9384022551770755</v>
       </c>
       <c r="E142" t="n">
-        <v>2.133055634373233</v>
+        <v>0.492464466661923</v>
       </c>
       <c r="F142" t="n">
-        <v>0.3367175148507369</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.3034329270639842</v>
+        <v>0.3367582435783322</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Delavirdine_2H05</t>
-        </is>
-      </c>
-      <c r="B143" s="1" t="n">
-        <v>1</v>
+          <t>Lusutrombopag_1A03</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>-0.5438106930856856</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1288828780343457</v>
+        <v>0.8327585653562121</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6760435411410076</v>
+        <v>0.01437077846529394</v>
       </c>
       <c r="E143" t="n">
-        <v>1.577450617151919</v>
+        <v>-0.2771198189373626</v>
       </c>
       <c r="F143" t="n">
-        <v>-0.6597897316389021</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.01364420615819004</v>
+        <v>-0.1094794219487304</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Indinavir_2H06</t>
-        </is>
-      </c>
-      <c r="B144" s="1" t="n">
-        <v>1</v>
+          <t>Bemcentinib_1A04</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>-0.3692404948963336</v>
       </c>
       <c r="C144" t="n">
-        <v>0.5770680820932027</v>
+        <v>0.4073027409366278</v>
       </c>
       <c r="D144" t="n">
-        <v>0.2614277567915518</v>
+        <v>0.9194618609725862</v>
       </c>
       <c r="E144" t="n">
-        <v>1.160389389016583</v>
+        <v>-0.4781359437885085</v>
       </c>
       <c r="F144" t="n">
-        <v>0.1478381953726348</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.6839311090422162</v>
+        <v>0.1319878628328955</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>Abacavir_2H07</t>
-        </is>
-      </c>
-      <c r="B145" s="1" t="n">
-        <v>1</v>
+          <t>ONO 5334_1A05</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>-0.8504109182759809</v>
       </c>
       <c r="C145" t="n">
-        <v>0.6809638530771598</v>
+        <v>0.08533837785432963</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.2164391570060572</v>
+        <v>0.3684467572819252</v>
       </c>
       <c r="E145" t="n">
-        <v>0.6277446517009383</v>
+        <v>-0.4002949212985332</v>
       </c>
       <c r="F145" t="n">
-        <v>0.08439188631164854</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.8393340640549217</v>
+        <v>0.2066900598743888</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Chlorothiazide_2H08</t>
-        </is>
-      </c>
-      <c r="B146" s="1" t="n">
-        <v>1</v>
+          <t>Remdesivir_1A06</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0.0210092144187637</v>
       </c>
       <c r="C146" t="n">
-        <v>0.8694953056038169</v>
+        <v>0.358480203657294</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.1782135336029232</v>
+        <v>0.3520553787017298</v>
       </c>
       <c r="E146" t="n">
-        <v>1.396491629413492</v>
+        <v>-0.2285489284971629</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4445802183277949</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-0.2471907397595691</v>
+        <v>0.1940722045905456</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>Apixaban_2H09</t>
-        </is>
-      </c>
-      <c r="B147" s="1" t="n">
-        <v>1</v>
+          <t>N-Desethylamodiaquine_1A07</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>-0.5140328211485994</v>
       </c>
       <c r="C147" t="n">
-        <v>0.8807152065720076</v>
+        <v>-0.1159575175779294</v>
       </c>
       <c r="D147" t="n">
-        <v>0.324372193233224</v>
+        <v>1.10094319537468</v>
       </c>
       <c r="E147" t="n">
-        <v>1.128340277036985</v>
+        <v>-0.139372584527918</v>
       </c>
       <c r="F147" t="n">
-        <v>0.202574013223596</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-0.5981647487789064</v>
+        <v>0.08360236881886823</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Naphtoquine_2H10</t>
-        </is>
-      </c>
-      <c r="B148" s="1" t="n">
-        <v>1</v>
+          <t>Ciclesonide_1A08</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0.2907778815765524</v>
       </c>
       <c r="C148" t="n">
-        <v>0.9173467630147369</v>
+        <v>-0.1879175287099154</v>
       </c>
       <c r="D148" t="n">
-        <v>0.5476559494946777</v>
+        <v>1.616267301654122</v>
       </c>
       <c r="E148" t="n">
-        <v>1.318372343905543</v>
+        <v>0.4782095201440693</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
-      </c>
-      <c r="G148" t="n">
-        <v>1.437468374748648</v>
+        <v>-0.2052672502650235</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Piperaquine_2H11</t>
-        </is>
-      </c>
-      <c r="B149" s="1" t="n">
-        <v>1</v>
+          <t>Nelfinavir_1A09</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>-0.3398056998440245</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9873299362158625</v>
+        <v>-0.1098218257244363</v>
       </c>
       <c r="D149" t="n">
-        <v>0.06273620484779345</v>
+        <v>0.2455355607626937</v>
       </c>
       <c r="E149" t="n">
-        <v>0.9384022551770755</v>
+        <v>-0.139372584527918</v>
       </c>
       <c r="F149" t="n">
-        <v>0.492464466661923</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0.3367582435783322</v>
+        <v>0.5014810729035744</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Lusutrombopag_1A03</t>
-        </is>
-      </c>
-      <c r="B150" s="1" t="n">
-        <v>1</v>
+          <t>Ethaverine_1A10</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0.005603753767862973</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.5438106930856856</v>
+        <v>-0.3648715275919299</v>
       </c>
       <c r="D150" t="n">
-        <v>0.8327585653562121</v>
+        <v>-0.308213971334462</v>
       </c>
       <c r="E150" t="n">
-        <v>0.01437077846529394</v>
+        <v>0.1288093907540857</v>
       </c>
       <c r="F150" t="n">
-        <v>-0.2771198189373626</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-0.1094794219487304</v>
+        <v>0.7486355753671792</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Bemcentinib_1A04</t>
-        </is>
-      </c>
-      <c r="B151" s="1" t="n">
-        <v>1</v>
+          <t>Ritonavir_1A11</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>-0.009963194083144894</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.3692404948963336</v>
+        <v>0.334092037845437</v>
       </c>
       <c r="D151" t="n">
-        <v>0.4073027409366278</v>
+        <v>0.4861472327589642</v>
       </c>
       <c r="E151" t="n">
-        <v>0.9194618609725862</v>
+        <v>0.2211545521267244</v>
       </c>
       <c r="F151" t="n">
-        <v>-0.4781359437885085</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0.1319878628328955</v>
+        <v>0.632481133368608</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>ONO 5334_1A05</t>
-        </is>
-      </c>
-      <c r="B152" s="1" t="n">
-        <v>1</v>
+          <t>Chlorpromazine_1B02</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0.1519025204887905</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.8504109182759809</v>
+        <v>0.6832413838517354</v>
       </c>
       <c r="D152" t="n">
-        <v>0.08533837785432963</v>
+        <v>-0.1682913552237496</v>
       </c>
       <c r="E152" t="n">
-        <v>0.3684467572819252</v>
+        <v>-0.3488954489053837</v>
       </c>
       <c r="F152" t="n">
-        <v>-0.4002949212985332</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.2066900598743888</v>
+        <v>-0.5268693288876319</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Remdesivir_1A06</t>
-        </is>
-      </c>
-      <c r="B153" s="1" t="n">
-        <v>1</v>
+          <t>Regorafenib_1B04</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1.658663358884102</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0210092144187637</v>
+        <v>1.402450939066195</v>
       </c>
       <c r="D153" t="n">
-        <v>0.358480203657294</v>
+        <v>1.656671741904906</v>
       </c>
       <c r="E153" t="n">
-        <v>0.3520553787017298</v>
+        <v>16.38736419455427</v>
       </c>
       <c r="F153" t="n">
-        <v>-0.2285489284971629</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.1940722045905456</v>
+        <v>2.712178912593043</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>N-Desethylamodiaquine_1A07</t>
-        </is>
-      </c>
-      <c r="B154" s="1" t="n">
-        <v>1</v>
+          <t>Pexidartanib_1B05</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0.9100295447814339</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.5140328211485994</v>
+        <v>1.307559264477617</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.1159575175779294</v>
+        <v>0.3658637852061125</v>
       </c>
       <c r="E154" t="n">
-        <v>1.10094319537468</v>
+        <v>1.072814451142873</v>
       </c>
       <c r="F154" t="n">
-        <v>-0.139372584527918</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0.08360236881886823</v>
+        <v>0.5531387140193889</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Ciclesonide_1A08</t>
-        </is>
-      </c>
-      <c r="B155" s="1" t="n">
-        <v>1</v>
+          <t>Ketoconazole_1B06</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>-0.6299780523676616</v>
       </c>
       <c r="C155" t="n">
-        <v>0.2907778815765524</v>
+        <v>-0.2273856310328772</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.1879175287099154</v>
+        <v>-0.04395657505580394</v>
       </c>
       <c r="E155" t="n">
-        <v>1.616267301654122</v>
+        <v>-0.6218367858085804</v>
       </c>
       <c r="F155" t="n">
-        <v>0.4782095201440693</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-0.2052672502650235</v>
+        <v>-0.134084090021783</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Nelfinavir_1A09</t>
-        </is>
-      </c>
-      <c r="B156" s="1" t="n">
-        <v>1</v>
+          <t>Drotaverine_1B07</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0.3512787669030382</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.3398056998440245</v>
+        <v>-0.152831073141104</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.1098218257244363</v>
+        <v>-0.1356522413301338</v>
       </c>
       <c r="E156" t="n">
-        <v>0.2455355607626937</v>
+        <v>0.1850781107702294</v>
       </c>
       <c r="F156" t="n">
-        <v>-0.139372584527918</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0.5014810729035744</v>
+        <v>0.1281480654754595</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Ethaverine_1A10</t>
-        </is>
-      </c>
-      <c r="B157" s="1" t="n">
-        <v>1</v>
+          <t>Verapamil_1B08</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0.2095590528213438</v>
       </c>
       <c r="C157" t="n">
-        <v>0.005603753767862973</v>
+        <v>0.06143406071179044</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.3648715275919299</v>
+        <v>-0.1362601488284882</v>
       </c>
       <c r="E157" t="n">
-        <v>-0.308213971334462</v>
+        <v>0.1288093907540857</v>
       </c>
       <c r="F157" t="n">
-        <v>0.1288093907540857</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0.7486355753671792</v>
+        <v>-0.1637182684310051</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>Ritonavir_1A11</t>
-        </is>
-      </c>
-      <c r="B158" s="1" t="n">
-        <v>1</v>
+          <t>R 7112_1B09</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>-0.6424876207599898</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.009963194083144894</v>
+        <v>-0.447002026462957</v>
       </c>
       <c r="D158" t="n">
-        <v>0.334092037845437</v>
+        <v>0.2074016896588563</v>
       </c>
       <c r="E158" t="n">
-        <v>0.4861472327589642</v>
+        <v>-0.5847041077330131</v>
       </c>
       <c r="F158" t="n">
-        <v>0.2211545521267244</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0.632481133368608</v>
+        <v>0.2073156700917194</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Chlorpromazine_1B02</t>
-        </is>
-      </c>
-      <c r="B159" s="1" t="n">
-        <v>1</v>
+          <t>Atazanavir_1B10</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>-0.6900409482319095</v>
       </c>
       <c r="C159" t="n">
-        <v>0.1519025204887905</v>
+        <v>-0.09547878555421968</v>
       </c>
       <c r="D159" t="n">
-        <v>0.6832413838517354</v>
+        <v>-0.3391659797480865</v>
       </c>
       <c r="E159" t="n">
-        <v>-0.1682913552237496</v>
+        <v>0.4627293315308102</v>
       </c>
       <c r="F159" t="n">
-        <v>-0.3488954489053837</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-0.5268693288876319</v>
+        <v>-0.740728549868592</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Apilimod_1B03</t>
-        </is>
-      </c>
-      <c r="B160" s="1" t="n">
-        <v>1</v>
+          <t>Ruxolitinib_1B11</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0.2024061032828319</v>
       </c>
       <c r="C160" t="n">
-        <v>2.893871181874138</v>
+        <v>0.663269595008444</v>
       </c>
       <c r="D160" t="n">
-        <v>2.86999686394334</v>
+        <v>0.1744808946781908</v>
       </c>
       <c r="E160" t="n">
-        <v>2.678284803390763</v>
+        <v>-0.3926443193258775</v>
       </c>
       <c r="F160" t="n">
-        <v>-0.2186941483265614</v>
-      </c>
-      <c r="G160" t="n">
-        <v>1.554143481399387</v>
+        <v>0.3359833568355843</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="n"/>
-      <c r="B161" s="1" t="n">
-        <v>0.5</v>
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>Niclosamide_1A02</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1.245266387376578</v>
       </c>
       <c r="C161" t="n">
-        <v>1.365206389948895</v>
+        <v>0.9804271024768952</v>
       </c>
       <c r="D161" t="n">
-        <v>1.690809501368802</v>
+        <v>-0.1958480700771875</v>
       </c>
       <c r="E161" t="n">
-        <v>0.2205116938396981</v>
+        <v>-0.183516012932573</v>
       </c>
       <c r="F161" t="n">
-        <v>-0.09991293263593562</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-0.1768707460090184</v>
+        <v>-0.1785342868137348</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>Regorafenib_1B04</t>
-        </is>
-      </c>
-      <c r="B162" s="1" t="n">
-        <v>1</v>
+          <t>Apilimod_1B03</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1.652336005534342</v>
       </c>
       <c r="C162" t="n">
-        <v>1.658663358884102</v>
+        <v>1.569280959910038</v>
       </c>
       <c r="D162" t="n">
-        <v>1.402450939066195</v>
+        <v>0.1219362945188416</v>
       </c>
       <c r="E162" t="n">
-        <v>1.656671741904906</v>
+        <v>-0.1824964028379189</v>
       </c>
       <c r="F162" t="n">
-        <v>16.38736419455427</v>
-      </c>
-      <c r="G162" t="n">
-        <v>2.712178912593043</v>
+        <v>-0.2011172096693538</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>Pexidartanib_1B05</t>
-        </is>
-      </c>
-      <c r="B163" s="1" t="n">
-        <v>1</v>
+          <t>Molnupiravir</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.5197591916923522</v>
       </c>
       <c r="C163" t="n">
-        <v>0.9100295447814339</v>
+        <v>0.8274687924235714</v>
       </c>
       <c r="D163" t="n">
-        <v>1.307559264477617</v>
+        <v>0.3478515184289209</v>
       </c>
       <c r="E163" t="n">
-        <v>0.3658637852061125</v>
+        <v>-0.1296102853875947</v>
       </c>
       <c r="F163" t="n">
-        <v>1.072814451142873</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0.5531387140193889</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>Ketoconazole_1B06</t>
-        </is>
-      </c>
-      <c r="B164" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C164" t="n">
-        <v>-0.6299780523676616</v>
-      </c>
-      <c r="D164" t="n">
-        <v>-0.2273856310328772</v>
-      </c>
-      <c r="E164" t="n">
-        <v>-0.04395657505580394</v>
-      </c>
-      <c r="F164" t="n">
-        <v>-0.6218367858085804</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-0.134084090021783</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>Drotaverine_1B07</t>
-        </is>
-      </c>
-      <c r="B165" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0.3512787669030382</v>
-      </c>
-      <c r="D165" t="n">
-        <v>-0.152831073141104</v>
-      </c>
-      <c r="E165" t="n">
-        <v>-0.1356522413301338</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0.1850781107702294</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0.1281480654754595</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>Verapamil_1B08</t>
-        </is>
-      </c>
-      <c r="B166" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0.2095590528213438</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.06143406071179044</v>
-      </c>
-      <c r="E166" t="n">
-        <v>-0.1362601488284882</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0.1288093907540857</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-0.1637182684310051</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>R 7112_1B09</t>
-        </is>
-      </c>
-      <c r="B167" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C167" t="n">
-        <v>-0.6424876207599898</v>
-      </c>
-      <c r="D167" t="n">
-        <v>-0.447002026462957</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.2074016896588563</v>
-      </c>
-      <c r="F167" t="n">
-        <v>-0.5847041077330131</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0.2073156700917194</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>Atazanavir_1B10</t>
-        </is>
-      </c>
-      <c r="B168" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C168" t="n">
-        <v>-0.6900409482319095</v>
-      </c>
-      <c r="D168" t="n">
-        <v>-0.09547878555421968</v>
-      </c>
-      <c r="E168" t="n">
-        <v>-0.3391659797480865</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0.4627293315308102</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-0.740728549868592</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>Ruxolitinib_1B11</t>
-        </is>
-      </c>
-      <c r="B169" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.2024061032828319</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.663269595008444</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.1744808946781908</v>
-      </c>
-      <c r="F169" t="n">
-        <v>-0.3926443193258775</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.3359833568355843</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>Niclosamide_1A02</t>
-        </is>
-      </c>
-      <c r="B170" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1.245266387376578</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.9804271024768952</v>
-      </c>
-      <c r="E170" t="n">
-        <v>-0.1958480700771875</v>
-      </c>
-      <c r="F170" t="n">
-        <v>-0.183516012932573</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-0.1785342868137348</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>Molnupiravir</t>
-        </is>
-      </c>
-      <c r="B171" s="1" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.549265900044023</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.2649671717775668</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.3880178974374772</v>
-      </c>
-      <c r="F171" t="n">
-        <v>-0.0409006676123264</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.4502320220602307</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n"/>
-      <c r="B172" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.5197591916923522</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.8274687924235714</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.3478515184289209</v>
-      </c>
-      <c r="F172" t="n">
-        <v>-0.1296102853875947</v>
-      </c>
-      <c r="G172" t="n">
         <v>-0.2842871227367199</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n"/>
-      <c r="B173" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0.5883300577250292</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.3032580549601491</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0.4055383867712186</v>
-      </c>
-      <c r="F173" t="n">
-        <v>-0.1292678565623494</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0.2898211182664736</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n"/>
-      <c r="B174" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0.4272311058575872</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.3475801212239165</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0.2274056134291473</v>
-      </c>
-      <c r="F174" t="n">
-        <v>-0.1523898336019908</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0.2814990183265618</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="A171:A174"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/2022-07-28_Morphology_Assay_effsize.xlsx
+++ b/Data/2022-07-28_Morphology_Assay_effsize.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,27 +455,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Body length (µm)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Heart Rate (BPM)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Ejection fraction (%)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Number ISV (Count)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ISV area (µm^2)</t>
         </is>
@@ -466,19 +487,22 @@
           <t>Papaverine_1C02</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
         <v>-0.09609229749971417</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.2943494339280845</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-0.7920209532043594</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.5396505787993127</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>-0.2818030197653672</v>
       </c>
     </row>
@@ -488,19 +512,22 @@
           <t>GSK-369796_1C03</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.01710554507153296</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.6138746072000405</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>-0.8101374896715091</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.8330714263383444</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>-0.0596783651922731</v>
       </c>
     </row>
@@ -510,19 +537,22 @@
           <t>Daclatasvir_1C04</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
         <v>0.3626296370700399</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.8855083167027546</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-0.08341366343785046</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.3993723491197789</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.2161235391087372</v>
       </c>
     </row>
@@ -532,19 +562,22 @@
           <t>Lonafarnib_1C05</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
         <v>-0.1944666097516753</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.9236622458915372</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-0.4596997685622697</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.475488613841902</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.01046718631775997</v>
       </c>
     </row>
@@ -554,19 +587,22 @@
           <t>Itraconazole_1C06</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
         <v>0.5374540278375987</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1.109795660773184</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-0.07445174220053308</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.3874466086919227</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.2210322169930537</v>
       </c>
     </row>
@@ -576,19 +612,22 @@
           <t>GSK 983_1C07</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
         <v>0.3288875416818026</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.5662476352942668</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-0.1685510903837953</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.1218520428048531</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.1040509583972432</v>
       </c>
     </row>
@@ -598,19 +637,22 @@
           <t>Tioguanine_1C08</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
         <v>0.07389531730100209</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.3905486592030545</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>-0.2127273394345244</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>-0.3625857460084776</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.07679190010613278</v>
       </c>
     </row>
@@ -620,19 +662,22 @@
           <t>Tomivosertib_1C09</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
         <v>0.3242216335995375</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>-0.2240276414909932</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-0.3020824920151683</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.07680231557384934</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.3834261728057362</v>
       </c>
     </row>
@@ -642,19 +687,22 @@
           <t>LY 2228820_1C10</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
         <v>-0.1320733240847073</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>-0.09018442164832249</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-0.4740254177713775</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.5967638332771477</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>-0.125932748703794</v>
       </c>
     </row>
@@ -664,8 +712,8 @@
           <t>Control</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
+      <c r="B11" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -679,6 +727,9 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -686,19 +737,22 @@
           <t>Tigecycline_1C11</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
         <v>-0.4997958590789806</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.1946862610136474</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>-0.7125256103583025</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>0.07680231557384934</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.3699860403015384</v>
       </c>
     </row>
@@ -708,19 +762,22 @@
           <t>Digoxin_1D02</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
         <v>0.5239648677116617</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.4426579525616242</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>-0.07626809351556872</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>-0.1266697318538898</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>-0.4813384930067339</v>
       </c>
     </row>
@@ -730,19 +787,22 @@
           <t>Amodiaquine_1D03</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
         <v>0.704063078771445</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.8641879619688341</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>0.4799553195925527</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>-0.3508895528078157</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>-0.1932173718767593</v>
       </c>
     </row>
@@ -752,3279 +812,3990 @@
           <t>Astemizole_1D04</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>4.285549320924812</v>
+      <c r="B15" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1.735587255833802</v>
+        <v>4.19575217314378</v>
       </c>
       <c r="D15" t="n">
-        <v>4.037491681780076</v>
+        <v>1.921098222665703</v>
       </c>
       <c r="E15" t="n">
-        <v>1.109610977136831</v>
+        <v>4.360274042730815</v>
       </c>
       <c r="F15" t="n">
-        <v>1.22088711682824</v>
+        <v>0.8936647419761483</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.314119823471509</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Halofantrine_1D05</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0.195877497204869</v>
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C16" t="n">
-        <v>2.330373813352846</v>
+        <v>3.538186502587194</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.537074560482686</v>
+        <v>3.576519281790036</v>
       </c>
       <c r="E16" t="n">
-        <v>0.301336299213825</v>
+        <v>1.226293225035449</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1333055810817916</v>
+        <v>1.338500560758994</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8035004309716276</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Ravuconazole_1D06</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1.115742007049427</v>
+          <t>Halofantrine_1D05</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3908225410569317</v>
+        <v>0.195877497204869</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.7564843814452571</v>
+        <v>2.330373813352846</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1023123638819837</v>
+        <v>-0.537074560482686</v>
       </c>
       <c r="F17" t="n">
-        <v>0.477360995893602</v>
+        <v>0.301336299213825</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.1333055810817916</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Tizoxanide_1D07</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.4821087721782811</v>
+          <t>Ravuconazole_1D06</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4257594325183627</v>
+        <v>1.115742007049427</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2261260962711793</v>
+        <v>0.3908225410569317</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.2804627149725248</v>
+        <v>-0.7564843814452571</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2409741923615196</v>
+        <v>-0.1023123638819837</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.477360995893602</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Valproic Acid_1D08</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.6347337645957677</v>
+          <t>Tizoxanide_1D07</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.347046568020165</v>
+        <v>0.4821087721782811</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1229563027734984</v>
+        <v>0.4257594325183627</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.5508722252945299</v>
+        <v>-0.2261260962711793</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1595902595599471</v>
+        <v>-0.2804627149725248</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.2409741923615196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Simeprevir_1D09</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.7685292867670875</v>
+          <t>Valproic Acid_1D08</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7141454127317103</v>
+        <v>0.6347337645957677</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4572822200276972</v>
+        <v>0.347046568020165</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2403552329607598</v>
+        <v>0.1229563027734984</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.4619511961881178</v>
+        <v>-0.5508722252945299</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.1595902595599471</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Favipiravir_1D10</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.8669622795675206</v>
+          <t>Simeprevir_1D09</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4309005158163814</v>
+        <v>0.7685292867670875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2358467989656832</v>
+        <v>0.7141454127317103</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3143535993724105</v>
+        <v>0.4572822200276972</v>
       </c>
       <c r="F21" t="n">
-        <v>0.493358026672893</v>
+        <v>0.2403552329607598</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.4619511961881178</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Vidofludimus_1D11</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.1210152337847005</v>
+          <t>Favipiravir_1D10</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3259595266234792</v>
+        <v>0.8669622795675206</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3404008800200528</v>
+        <v>0.4309005158163814</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.01874529236692636</v>
+        <v>0.2358467989656832</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05388674095524457</v>
+        <v>0.3143535993724105</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.493358026672893</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Hydroxyprogesterone_1E02</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.8955438022895768</v>
+          <t>Vidofludimus_1D11</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1921879375975433</v>
+        <v>0.1210152337847005</v>
       </c>
       <c r="D23" t="n">
-        <v>1.038197231373585</v>
+        <v>0.3259595266234792</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.3715212526644839</v>
+        <v>0.3404008800200528</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1770641227298635</v>
+        <v>-0.01874529236692636</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.05388674095524457</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Nafamostat_1E03</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>-0.3237596796090781</v>
+          <t>Hydroxyprogesterone_1E02</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.00230522294706256</v>
+        <v>-0.8955438022895768</v>
       </c>
       <c r="D24" t="n">
-        <v>1.061216385034934</v>
+        <v>0.1921879375975433</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.3782880191862262</v>
+        <v>1.038197231373585</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2745171934050036</v>
+        <v>-0.3715212526644839</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.1770641227298635</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Amuvatinib_1E04</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>-0.176353043005568</v>
+          <t>Nafamostat_1E03</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.08014893144761609</v>
+        <v>-0.3237596796090781</v>
       </c>
       <c r="D25" t="n">
-        <v>1.430180044205124</v>
+        <v>-0.00230522294706256</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.2854398334904734</v>
+        <v>1.061216385034934</v>
       </c>
       <c r="F25" t="n">
-        <v>0.008267025661331844</v>
+        <v>-0.3782880191862262</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.2745171934050036</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Doxycycline_1E05</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.8220818377463839</v>
+          <t>Amuvatinib_1E04</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07960276187496815</v>
+        <v>-0.176353043005568</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6632041968455582</v>
+        <v>-0.08014893144761609</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.1634813421749971</v>
+        <v>1.430180044205124</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.1043566706728666</v>
+        <v>-0.2854398334904734</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.008267025661331844</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Emetine_1E06</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.1366554038365506</v>
+          <t>Doxycycline_1E05</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02675234804521217</v>
+        <v>0.8220818377463839</v>
       </c>
       <c r="D27" t="n">
-        <v>1.261338351981531</v>
+        <v>0.07960276187496815</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.2565435482870739</v>
+        <v>0.6632041968455582</v>
       </c>
       <c r="F27" t="n">
-        <v>0.3296210377036702</v>
+        <v>-0.1634813421749971</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.1043566706728666</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Triparanol_1E07</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-0.156174825194544</v>
+          <t>Emetine_1E06</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.3020861667475509</v>
+        <v>-0.1366554038365506</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7760114354518983</v>
+        <v>0.02675234804521217</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.1510577023440255</v>
+        <v>1.261338351981531</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.02476829932322472</v>
+        <v>-0.2565435482870739</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.3296210377036702</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Clomipramine_1E08</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.887893189510744</v>
+          <t>Triparanol_1E07</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2983028666645117</v>
+        <v>-0.156174825194544</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8142232067481502</v>
+        <v>-0.3020861667475509</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.008985764095178508</v>
+        <v>0.7760114354518983</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.3868017355216988</v>
+        <v>-0.1510577023440255</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.02476829932322472</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Sofosbuvir_1E09</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.09962696138864292</v>
+          <t>Clomipramine_1E08</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1881471388532099</v>
+        <v>0.887893189510744</v>
       </c>
       <c r="D30" t="n">
-        <v>1.195717181250134</v>
+        <v>-0.2983028666645117</v>
       </c>
       <c r="E30" t="n">
-        <v>0.3456555327298598</v>
+        <v>0.8142232067481502</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00684551581083622</v>
+        <v>-0.008985764095178508</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.3868017355216988</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Camostat_1E10</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.1757966766374851</v>
+          <t>Sofosbuvir_1E09</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.4258415008429254</v>
+        <v>-0.09962696138864292</v>
       </c>
       <c r="D31" t="n">
-        <v>1.196194360072161</v>
+        <v>-0.1881471388532099</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.6148230813934464</v>
+        <v>1.195717181250134</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1411936230985031</v>
+        <v>0.3456555327298598</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.00684551581083622</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>SMN-C3_1E11</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-0.1157180599184631</v>
+          <t>Camostat_1E10</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.3432260546531637</v>
+        <v>-0.1757966766374851</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6248084337144081</v>
+        <v>-0.4258415008429254</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08590137846293348</v>
+        <v>1.196194360072161</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2340011566025112</v>
+        <v>-0.6148230813934464</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.1411936230985031</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Valsartan_1F02</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-0.2623711701140524</v>
+          <t>SMN-C3_1E11</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2474549927190023</v>
+        <v>-0.1157180599184631</v>
       </c>
       <c r="D33" t="n">
-        <v>1.197242801904812</v>
+        <v>-0.3432260546531637</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9823059488178983</v>
+        <v>0.6248084337144081</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5824854177043165</v>
+        <v>0.08590137846293348</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.2340011566025112</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Amiodarone_1F03</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.5915335384025221</v>
+          <t>Valsartan_1F02</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>1.121982038923544</v>
+        <v>-0.2623711701140524</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6627170270769869</v>
+        <v>0.2474549927190023</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7336116833738002</v>
+        <v>1.197242801904812</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7190425762347107</v>
+        <v>0.9823059488178983</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.5824854177043165</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Cyclosporine_1F04</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.7868533787852081</v>
+          <t>Amiodarone_1F03</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7359966210755184</v>
+        <v>0.5915335384025221</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2854375092900638</v>
+        <v>1.121982038923544</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6440448810086796</v>
+        <v>0.6627170270769869</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4558041216614401</v>
+        <v>0.7336116833738002</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.7190425762347107</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Ivermectin_1F05</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>2.40953004185212</v>
+          <t>Cyclosporine_1F04</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>1.202478755068372</v>
+        <v>0.7868533787852081</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.06683294234997192</v>
+        <v>0.7359966210755184</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8642969965109616</v>
+        <v>0.2854375092900638</v>
       </c>
       <c r="F36" t="n">
-        <v>1.054054402283203</v>
+        <v>0.6440448810086796</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.4558041216614401</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Indomethacin_1F06</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.5557256030123067</v>
+          <t>Ivermectin_1F05</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1501266067481486</v>
+        <v>2.40953004185212</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7515965106117166</v>
+        <v>1.202478755068372</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-0.06683294234997192</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2825805613116197</v>
+        <v>0.8642969965109616</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.054054402283203</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Captopril_1F07</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.6200493291455885</v>
+          <t>Indomethacin_1F06</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2201648066470259</v>
+        <v>0.5557256030123067</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5390183971608281</v>
+        <v>0.1501266067481486</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4641553747140522</v>
+        <v>0.7515965106117166</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7590019993988899</v>
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.2825805613116197</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Sorafenib_1F09</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>1.780905796803631</v>
+          <t>Captopril_1F07</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>1.038985298523824</v>
+        <v>0.6200493291455885</v>
       </c>
       <c r="D39" t="n">
-        <v>2.088363850604096</v>
+        <v>0.2201648066470259</v>
       </c>
       <c r="E39" t="n">
-        <v>9.816152836709838</v>
+        <v>0.5390183971608281</v>
       </c>
       <c r="F39" t="n">
-        <v>3.250689692881092</v>
+        <v>0.4641553747140522</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.7590019993988899</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ABT 239_1F10</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.188696889303178</v>
+          <t>Sorafenib_1F09</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>1.269936993541035</v>
+        <v>1.789286831871167</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1829536084973871</v>
+        <v>1.256831638007398</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5157820591895916</v>
+        <v>2.317286662162577</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2602864584595962</v>
+        <v>10.8398708324583</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3.641865682399838</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>Hydroxychloroquine_1F11</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.3967859614512963</v>
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3236346713331029</v>
+        <v>0.9639475476079132</v>
       </c>
       <c r="D41" t="n">
-        <v>1.087386454584804</v>
+        <v>0.2426763180991346</v>
       </c>
       <c r="E41" t="n">
-        <v>0.03664936711820803</v>
+        <v>-0.2990506055766823</v>
       </c>
       <c r="F41" t="n">
-        <v>1.01605326124518</v>
+        <v>2.476950442212601</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.208434969072125</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Ribavirin_1F08</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.7384673759392076</v>
+          <t>ABT 239_1F10</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7698073384224177</v>
+        <v>0.188696889303178</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7294370183753266</v>
+        <v>1.269936993541035</v>
       </c>
       <c r="E42" t="n">
-        <v>0.08079136576142094</v>
+        <v>0.1829536084973871</v>
       </c>
       <c r="F42" t="n">
-        <v>1.010866455427662</v>
+        <v>0.5157820591895916</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.2602864584595962</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Benztropine_1G02</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.7837253826024635</v>
+          <t>Hydroxychloroquine_1F11</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>2.347283507698254</v>
+        <v>0.3967859614512963</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06049669909944824</v>
+        <v>0.3236346713331029</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.09346648585986086</v>
+        <v>1.087386454584804</v>
       </c>
       <c r="F43" t="n">
-        <v>0.09433760861999207</v>
+        <v>0.03664936711820803</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.01605326124518</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Manidipine_1G03</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>1.279839260382916</v>
+          <t>Ribavirin_1F08</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>3.035488387861208</v>
+        <v>0.7384673759392076</v>
       </c>
       <c r="D44" t="n">
-        <v>1.08822146319777</v>
+        <v>0.7698073384224177</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8098671138327115</v>
+        <v>0.7294370183753266</v>
       </c>
       <c r="F44" t="n">
-        <v>0.6171682056687817</v>
+        <v>0.08079136576142094</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.010866455427662</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Almitrine_1G04</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1.837173531446148</v>
+          <t>Benztropine_1G02</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.82131254820607</v>
+        <v>0.7837253826024635</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06456503302952978</v>
+        <v>2.347283507698254</v>
       </c>
       <c r="E45" t="n">
-        <v>0.37661492093361</v>
+        <v>0.06049669909944824</v>
       </c>
       <c r="F45" t="n">
-        <v>0.09731454547492885</v>
+        <v>-0.09346648585986086</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.09433760861999207</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Nitazoxanide_1G05</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.1941620299486874</v>
+          <t>Manidipine_1G03</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>2.325149149412935</v>
+        <v>1.262497715551943</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2279440895170921</v>
+        <v>3.470254496549249</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.1362046119444461</v>
+        <v>1.328429285796326</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5025076807297437</v>
+        <v>0.6527980167474868</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.7335268536368018</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>MK-2206_1G06</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>1.218038642989592</v>
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C47" t="n">
-        <v>1.015259749702562</v>
+        <v>0.7310190773663188</v>
       </c>
       <c r="D47" t="n">
-        <v>0.187402423210398</v>
+        <v>2.707042702201234</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7415039977600626</v>
+        <v>0.6162619113243664</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.06087633351919913</v>
+        <v>0.7263930642320059</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.1713435574458417</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Terconazole_1G07</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.1436090530257945</v>
+          <t>Almitrine_1G04</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>1.860486002970419</v>
+        <v>1.837173531446148</v>
       </c>
       <c r="D48" t="n">
-        <v>0.01738521697490988</v>
+        <v>0.82131254820607</v>
       </c>
       <c r="E48" t="n">
-        <v>0.07456371371686177</v>
+        <v>0.06456503302952978</v>
       </c>
       <c r="F48" t="n">
-        <v>0.4226750793040298</v>
+        <v>0.37661492093361</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.09731454547492885</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Midostaurin_1G08</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1.387583897918711</v>
+          <t>Nitazoxanide_1G05</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>1.499731762108138</v>
+        <v>0.1941620299486874</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5163870271325698</v>
+        <v>2.325149149412935</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9181404564967044</v>
+        <v>0.2279440895170921</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1413473837948133</v>
+        <v>-0.1362046119444461</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.5025076807297437</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Ferroquine_1G09</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.03243247784461493</v>
+          <t>MK-2206_1G06</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>1.180104595973571</v>
+        <v>1.218038642989592</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1265438983805751</v>
+        <v>1.015259749702562</v>
       </c>
       <c r="E50" t="n">
-        <v>0.03801927543122637</v>
+        <v>0.187402423210398</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3243920631262566</v>
+        <v>0.7415039977600626</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.06087633351919913</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>SAX-187_1G10</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>-0.5317943787351839</v>
+          <t>Terconazole_1G07</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>1.037526847524958</v>
+        <v>-0.1020327116407461</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.5785703530190109</v>
+        <v>1.49702381171102</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.06802134870182203</v>
+        <v>0.07719131181981141</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1829374750430928</v>
+        <v>-0.1225860848636955</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.7399077150307345</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Abemaciclib_1G11</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>-0.4608287125790603</v>
+      <c r="A52" s="1" t="n"/>
+      <c r="B52" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4540948692726249</v>
+        <v>0.6140063801812443</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.6734014330176195</v>
+        <v>1.091065903954251</v>
       </c>
       <c r="E52" t="n">
-        <v>0.03310752378337898</v>
+        <v>0.1416499258523236</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.07528518922868874</v>
+        <v>0.4902795152349387</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.1211370969189957</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Pevonedistat_1H02</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>-0.1257975653296553</v>
+          <t>Midostaurin_1G08</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0.554580894340056</v>
+        <v>1.460679386823443</v>
       </c>
       <c r="D53" t="n">
-        <v>1.899728405908342</v>
+        <v>1.792234917768253</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>0.6588983533743533</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1719952863605349</v>
+        <v>0.7356922342029147</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.2113357639360056</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Tetrandrine_1H03</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>-0.003350744574717411</v>
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8093929217027306</v>
+        <v>0.2509425352440975</v>
       </c>
       <c r="D54" t="n">
-        <v>2.099473080152348</v>
+        <v>0.7324387155437467</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3895731968747319</v>
+        <v>-0.5158424316967847</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6150575591028954</v>
+        <v>1.415091221996799</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.08831282948471282</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>Lopinavir_1H04</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.3647498084752003</v>
+          <t>Ferroquine_1G09</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>0.3842015321475116</v>
+        <v>0.03243247784461493</v>
       </c>
       <c r="D55" t="n">
-        <v>0.8653467721219954</v>
+        <v>1.180104595973571</v>
       </c>
       <c r="E55" t="n">
-        <v>0.313776673677315</v>
+        <v>0.1265438983805751</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1966196635015316</v>
+        <v>0.03801927543122637</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.3243920631262566</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Imatinib_1H05</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>-0.8588994592809452</v>
+          <t>SAX-187_1G10</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4722661725696453</v>
+        <v>-0.5317943787351839</v>
       </c>
       <c r="D56" t="n">
-        <v>2.710221188077626</v>
+        <v>1.037526847524958</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>-0.5785703530190109</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.5628737719169682</v>
+        <v>-0.06802134870182203</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.1829374750430928</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Fluphenazine_1H06</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>-0.6772068215969052</v>
+          <t>Abemaciclib_1G11</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07962948598516131</v>
+        <v>-0.4608287125790603</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6383118066200437</v>
+        <v>0.4540948692726249</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>-0.6734014330176195</v>
       </c>
       <c r="F57" t="n">
-        <v>0.362764807595072</v>
+        <v>0.03310752378337898</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.07528518922868874</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Haloperidol_1H07</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>-0.5111921391976443</v>
+          <t>Pevonedistat_1H02</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5056489280226814</v>
+        <v>-0.1257975653296553</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.556850355859163</v>
+        <v>0.554580894340056</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6091449038731727</v>
+        <v>1.899728405908342</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5172363438004776</v>
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.1719952863605349</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Ozanimod_1H08</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>-0.2172071842858292</v>
+          <t>Tetrandrine_1H03</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6071230996845735</v>
+        <v>-0.003350744574717411</v>
       </c>
       <c r="D59" t="n">
-        <v>1.263356084199077</v>
+        <v>0.8093929217027306</v>
       </c>
       <c r="E59" t="n">
-        <v>0.188599531995557</v>
+        <v>2.099473080152348</v>
       </c>
       <c r="F59" t="n">
-        <v>0.464909828535942</v>
+        <v>-0.3895731968747319</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.6150575591028954</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Loratidine_1H09</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.1788745289244462</v>
+          <t>Lopinavir_1H04</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.5094898135797099</v>
+        <v>0.3647498084752003</v>
       </c>
       <c r="D60" t="n">
-        <v>1.21327191096534</v>
+        <v>0.3842015321475116</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6754452835214781</v>
+        <v>0.8653467721219954</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3460361866179966</v>
+        <v>0.313776673677315</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.1966196635015316</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Posaconazole_1H10</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>-0.4167670595997987</v>
+          <t>Imatinib_1H05</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.2884469676118201</v>
+        <v>-0.8588994592809452</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.3525941381496845</v>
+        <v>0.4722661725696453</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1478381953726348</v>
+        <v>2.710221188077626</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.3115240433926302</v>
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-0.5628737719169682</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Pyronaridine_1H11</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.3421200317115715</v>
+          <t>Fluphenazine_1H06</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3151638411122483</v>
+        <v>-0.6772068215969052</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5322546795244764</v>
+        <v>0.07962948598516131</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.3592252271906948</v>
+        <v>0.6383118066200437</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2763827268425114</v>
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.362764807595072</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Fluspirilene_2A02</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>1.019317176219537</v>
+          <t>Haloperidol_1H07</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>1.973727415020475</v>
+        <v>-0.5111921391976443</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6527331475565089</v>
+        <v>0.5056489280226814</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.3698877385020448</v>
+        <v>-0.556850355859163</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1328200049249257</v>
+        <v>0.6091449038731727</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.5172363438004776</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Tetracycline_2A03</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.7310339996588116</v>
+          <t>Ozanimod_1H08</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>1.246474948693456</v>
+        <v>-0.2172071842858292</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5455517143543739</v>
+        <v>0.6071230996845735</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.5059314930818177</v>
+        <v>1.263356084199077</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.04739326711224398</v>
+        <v>0.188599531995557</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.464909828535942</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Toremifene_2A04</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.848005803198963</v>
+          <t>Loratidine_1H09</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>1.553566358732666</v>
+        <v>0.1788745289244462</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3011204866937338</v>
+        <v>-0.5094898135797099</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.6449388859285471</v>
+        <v>1.21327191096534</v>
       </c>
       <c r="F65" t="n">
-        <v>0.6054652206687836</v>
+        <v>0.6754452835214781</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.3460361866179966</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Doxorubicin_2A05</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.582689430870067</v>
+          <t>Posaconazole_1H10</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>1.69285412561728</v>
+        <v>-0.4167670595997987</v>
       </c>
       <c r="D66" t="n">
-        <v>2.318877970724504</v>
+        <v>-0.2884469676118201</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4036826331240014</v>
+        <v>-0.3525941381496845</v>
       </c>
       <c r="F66" t="n">
-        <v>0.04562341668289053</v>
+        <v>0.1478381953726348</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.3115240433926302</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Rapamycin_2A06</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>1.980835560299017</v>
+          <t>Pyronaridine_1H11</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>1.636301999943412</v>
+        <v>0.3421200317115715</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9667469892707061</v>
+        <v>0.3151638411122483</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.04246258411874495</v>
+        <v>0.5322546795244764</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2706380710516423</v>
+        <v>-0.3592252271906948</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.2763827268425114</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Ponatinib_2A07</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>3.455874049800997</v>
+          <t>Fluspirilene_2A02</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>1.181033112795676</v>
+        <v>1.019317176219537</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7237959861816412</v>
+        <v>1.973727415020475</v>
       </c>
       <c r="E68" t="n">
-        <v>2.953464044545905</v>
+        <v>0.6527331475565089</v>
       </c>
       <c r="F68" t="n">
-        <v>1.880483824470353</v>
+        <v>-0.3698877385020448</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-0.1328200049249257</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Migalastat_2A08</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>-0.8680956197055555</v>
+          <t>Tetracycline_2A03</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8067310855201929</v>
+        <v>0.7310339996588116</v>
       </c>
       <c r="D69" t="n">
-        <v>1.070751003830855</v>
+        <v>1.246474948693456</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.8976338412714466</v>
+        <v>0.5455517143543739</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6847100653559318</v>
+        <v>-0.5059314930818177</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-0.04739326711224398</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Berbamine_2A09</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.844254507254055</v>
+          <t>Toremifene_2A04</t>
+        </is>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5132973959337389</v>
+        <v>0.848005803198963</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9863026228251462</v>
+        <v>1.553566358732666</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4013387120640427</v>
+        <v>0.3011204866937338</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.1310063982274389</v>
+        <v>-0.6449388859285471</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.6054652206687836</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Metformin_2A10</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>-0.4482017865625188</v>
+          <t>Doxorubicin_2A05</t>
+        </is>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6696506015082332</v>
+        <v>0.582689430870067</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2538269596360728</v>
+        <v>1.69285412561728</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9788002281473533</v>
+        <v>2.318877970724504</v>
       </c>
       <c r="F71" t="n">
-        <v>0.3652841574363483</v>
+        <v>-0.4036826331240014</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.04562341668289053</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Fluconazole_2A11</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>-0.03929861119502392</v>
+          <t>Rapamycin_2A06</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0.12293177388462</v>
+        <v>1.980835560299017</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.2862396019889848</v>
+        <v>1.636301999943412</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.1894580208616954</v>
+        <v>0.9667469892707061</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2953949594649812</v>
+        <v>-0.04246258411874495</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.2706380710516423</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Lumefantrine_2B02</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.006909238981839361</v>
+          <t>Ponatinib_2A07</t>
+        </is>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5130996563059044</v>
+        <v>3.422810170486516</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.3467530794118719</v>
+        <v>1.227398021486498</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>0.8213114695375555</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7770078643026381</v>
+        <v>3.189095572170363</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2.104018412440738</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Anidulafungin_2B03</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.6340023345127528</v>
+      <c r="A74" s="1" t="n"/>
+      <c r="B74" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6662827277040475</v>
+        <v>2.965589284662683</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3813178980120154</v>
+        <v>0.6118897652286631</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.1667383274409223</v>
+        <v>-1.471652122938637</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.3914116671077003</v>
+        <v>2.651171122267077</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03107425070651785</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Hanfangchin B_2B04</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.1061115175179007</v>
+          <t>Migalastat_2A08</t>
+        </is>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2942555758736568</v>
+        <v>-0.8680956197055555</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3481590519806581</v>
+        <v>0.8067310855201929</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.2687982821395284</v>
+        <v>1.070751003830855</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.3391089848735752</v>
+        <v>-0.8976338412714466</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-0.6847100653559318</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Entacapone_2B05</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.3354722639356575</v>
+          <t>Berbamine_2A09</t>
+        </is>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>1.539956285494933</v>
+        <v>0.844254507254055</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.2339779694010925</v>
+        <v>0.5132973959337389</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1323901041632216</v>
+        <v>0.9863026228251462</v>
       </c>
       <c r="F76" t="n">
-        <v>0.01151300699163319</v>
+        <v>0.4013387120640427</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-0.1310063982274389</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Thiethylperazine_2B06</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0.6706163101935612</v>
+          <t>Metformin_2A10</t>
+        </is>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6453561889040793</v>
+        <v>-0.4482017865625188</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3409890973450337</v>
+        <v>0.6696506015082332</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2988097913991211</v>
+        <v>0.2538269596360728</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5018060398901646</v>
+        <v>-0.9788002281473533</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.3652841574363483</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Tacrolimus_2B07</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0.492832401460527</v>
+          <t>Fluconazole_2A11</t>
+        </is>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>1.548190685448708</v>
+        <v>-0.03929861119502392</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.992915875926738</v>
+        <v>0.12293177388462</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2904994500949469</v>
+        <v>-0.2862396019889848</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1642847996357376</v>
+        <v>-0.1894580208616954</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.2953949594649812</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Dabrafenib_2B08</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0.341434903842817</v>
+          <t>Lumefantrine_2B02</t>
+        </is>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.195828479644841</v>
+        <v>0.006909238981839361</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.4368031806036623</v>
+        <v>0.5130996563059044</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.08187218500672233</v>
+        <v>-0.3467530794118719</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.029549478256268</v>
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-0.7770078643026381</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Dapivirine_2B09</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0.09892155345879293</v>
+          <t>Anidulafungin_2B03</t>
+        </is>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0.2102096865432195</v>
+        <v>0.6340023345127528</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.2521772070213184</v>
+        <v>0.6662827277040475</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.233251514127111</v>
+        <v>0.3813178980120154</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.5956369743974307</v>
+        <v>-0.1667383274409223</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-0.3914116671077003</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Mycophenolic acid_2B10</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.2585981131763394</v>
+          <t>Hanfangchin B_2B04</t>
+        </is>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.08784174240828814</v>
+        <v>0.1061115175179007</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.8352223382876947</v>
+        <v>0.2942555758736568</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2988097913991211</v>
+        <v>0.3481590519806581</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.271742079130962</v>
+        <v>-0.2687982821395284</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-0.3391089848735752</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Tenofovir_2B11</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0.4902911907497612</v>
+          <t>Entacapone_2B05</t>
+        </is>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.3372511324883851</v>
+        <v>0.3354722639356575</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.7559168933383246</v>
+        <v>1.539956285494933</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1843692899617538</v>
+        <v>-0.2339779694010925</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.2488909222818969</v>
+        <v>0.1323901041632216</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01151300699163319</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Silmitasertib_2C02</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0.2672952775271215</v>
+          <t>Thiethylperazine_2B06</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2570928750238181</v>
+        <v>0.6706163101935612</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4959528798715788</v>
+        <v>0.6453561889040793</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4002949212985332</v>
+        <v>0.3409890973450337</v>
       </c>
       <c r="F83" t="n">
-        <v>0.6673778533624294</v>
+        <v>0.2988097913991211</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.5018060398901646</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>Oxyclozanide_2C03</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0.8953034812131799</v>
+          <t>Tacrolimus_2B07</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7885473355310182</v>
+        <v>0.3858689130352065</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.7012047685290097</v>
+        <v>1.525793492200576</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.7249147404695011</v>
+        <v>-1.135374768943403</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5111020021621254</v>
+        <v>-0.4205899502840726</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.2892154380743709</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Digitoxin_2C04</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0.3233144047785247</v>
+      <c r="A85" s="1" t="n"/>
+      <c r="B85" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9342858662016483</v>
+        <v>0.5464527907055573</v>
       </c>
       <c r="D85" t="n">
-        <v>0.01991898905102065</v>
+        <v>3.162624636575767</v>
       </c>
       <c r="E85" t="n">
-        <v>0.2527418100922267</v>
+        <v>-2.646181325215634</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3840990976513079</v>
+        <v>0.5807006857267467</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-0.3919834388894557</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>Chlormidazole_2C05</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0.9122138203544664</v>
+          <t>Dabrafenib_2B08</t>
+        </is>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>1.370237549824351</v>
+        <v>0.341434903842817</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4869244750213653</v>
+        <v>-0.195828479644841</v>
       </c>
       <c r="E86" t="n">
-        <v>0.05315491888481629</v>
+        <v>-0.4368031806036623</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2983075352347824</v>
+        <v>-0.08187218500672233</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-1.029549478256268</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>Proscillaridin_2C06</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0.3339626170428244</v>
+          <t>Dapivirine_2B09</t>
+        </is>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5058405920428319</v>
+        <v>0.09892155345879293</v>
       </c>
       <c r="D87" t="n">
-        <v>0.03334019909455333</v>
+        <v>0.2102096865432195</v>
       </c>
       <c r="E87" t="n">
-        <v>-0.3865140237683005</v>
+        <v>-0.2521772070213184</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2532385343416276</v>
+        <v>-0.233251514127111</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-0.5956369743974307</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Dutacatib_2C07</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0.9175082974036155</v>
+          <t>Mycophenolic acid_2B10</t>
+        </is>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>1.077259083488052</v>
+        <v>0.2585981131763394</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.3750972359503249</v>
+        <v>-0.08784174240828814</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4781359437885085</v>
+        <v>-0.8352223382876947</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6109360403486057</v>
+        <v>0.2988097913991211</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-0.271742079130962</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>PB 28_2C08</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>1.034781958863794</v>
+          <t>Tenofovir_2B11</t>
+        </is>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.06673756047182407</v>
+        <v>0.4902911907497612</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.01064595785796109</v>
+        <v>-0.3372511324883851</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2262536511687318</v>
+        <v>-0.7559168933383246</v>
       </c>
       <c r="F89" t="n">
-        <v>1.383760352247297</v>
+        <v>-0.1843692899617538</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-0.2488909222818969</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Baricitinib_2C09</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.3334735615859174</v>
+          <t>Silmitasertib_2C02</t>
+        </is>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0.09976087651276035</v>
+        <v>0.2672952775271215</v>
       </c>
       <c r="D90" t="n">
-        <v>0.1977098357455362</v>
+        <v>0.2570928750238181</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4736232491392236</v>
+        <v>0.4959528798715788</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9597580748122765</v>
+        <v>0.4002949212985332</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.6673778533624294</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Eszopiclone_2C10</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0.2153591765468877</v>
+          <t>Oxyclozanide_2C03</t>
+        </is>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1953579099689514</v>
+        <v>0.8953034812131799</v>
       </c>
       <c r="D91" t="n">
-        <v>0.2879427497230591</v>
+        <v>0.7885473355310182</v>
       </c>
       <c r="E91" t="n">
-        <v>0.3762779415807948</v>
+        <v>-0.7012047685290097</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3124221387866574</v>
+        <v>-0.7249147404695011</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.5111020021621254</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>(+)-Mefloquine_2C11</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0.4099613897393544</v>
+          <t>Digitoxin_2C04</t>
+        </is>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0.05512758234554321</v>
+        <v>0.3233144047785247</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.5484898774894539</v>
+        <v>0.9342858662016483</v>
       </c>
       <c r="E92" t="n">
-        <v>-0.4627293315308102</v>
+        <v>0.01991898905102065</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3202380209369637</v>
+        <v>0.2527418100922267</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.3840990976513079</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>Salinomycin_2D02</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>-0.09652661442762993</v>
+          <t>Chlormidazole_2C05</t>
+        </is>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>1.074836948646219</v>
+        <v>0.9122138203544664</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.06783168457116165</v>
+        <v>1.370237549824351</v>
       </c>
       <c r="E93" t="n">
-        <v>0.7936507936507958</v>
+        <v>0.4869244750213653</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1364535667144305</v>
+        <v>0.05315491888481629</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.2983075352347824</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>JQ 1_2D03</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>-0.2517305894467072</v>
+          <t>Proscillaridin_2C06</t>
+        </is>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>1.658266337947665</v>
+        <v>0.3339626170428244</v>
       </c>
       <c r="D94" t="n">
-        <v>0.7969352294306613</v>
+        <v>0.5058405920428319</v>
       </c>
       <c r="E94" t="n">
-        <v>0.547722022620642</v>
+        <v>0.03334019909455333</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05354138217017694</v>
+        <v>-0.3865140237683005</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.2532385343416276</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>RVX 208_2D04</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>-0.5349663588346733</v>
+          <t>Dutacatib_2C07</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0.667125407502944</v>
+        <v>0.9175082974036155</v>
       </c>
       <c r="D95" t="n">
-        <v>0.572677207923863</v>
+        <v>1.077259083488052</v>
       </c>
       <c r="E95" t="n">
-        <v>0.2060303455024319</v>
+        <v>-0.3750972359503249</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.494018490733545</v>
+        <v>0.4781359437885085</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.6109360403486057</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>Osimertinib_2D05</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.2679128675605904</v>
+          <t>PB 28_2C08</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>1.72615438103991</v>
+        <v>1.034781958863794</v>
       </c>
       <c r="D96" t="n">
-        <v>0.05785739270409107</v>
+        <v>-0.06673756047182407</v>
       </c>
       <c r="E96" t="n">
-        <v>0.370013661850389</v>
+        <v>-0.01064595785796109</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1482603319668206</v>
+        <v>0.2262536511687318</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.383760352247297</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>Cloperastine_2D06</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>-0.4408728725007952</v>
+          <t>Baricitinib_2C09</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1421909173046896</v>
+        <v>0.3334735615859174</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.2335049442654742</v>
+        <v>0.09976087651276035</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6447260162981571</v>
+        <v>0.1977098357455362</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4927448551002039</v>
+        <v>0.4736232491392236</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.9597580748122765</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>Clemastine_2D07</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>-0.2988713057164959</v>
+          <t>Eszopiclone_2C10</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>1.253097932553342</v>
+        <v>0.2153591765468877</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5415541296666849</v>
+        <v>0.1953579099689514</v>
       </c>
       <c r="E98" t="n">
-        <v>0.5275101046754855</v>
+        <v>0.2879427497230591</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5669316318647045</v>
+        <v>0.3762779415807948</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.3124221387866574</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>Merimepodib_2D08</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>-0.8955294965034356</v>
+          <t>(+)-Mefloquine_2C11</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8140667417451972</v>
+        <v>0.4099613897393544</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5954767010536192</v>
+        <v>0.05512758234554321</v>
       </c>
       <c r="E99" t="n">
-        <v>0.3035501230055592</v>
+        <v>-0.5484898774894539</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2629665793285213</v>
+        <v>-0.4627293315308102</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.3202380209369637</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>E 52862_2D09</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>-0.4246030482930254</v>
+          <t>Salinomycin_2D02</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0.6543468618373667</v>
+        <v>-0.09652661442762993</v>
       </c>
       <c r="D100" t="n">
-        <v>0.9507818398708286</v>
+        <v>1.074836948646219</v>
       </c>
       <c r="E100" t="n">
-        <v>1.000429964645507</v>
+        <v>-0.06783168457116165</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2910460567010744</v>
+        <v>0.7936507936507958</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-0.1364535667144305</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>Doravirine_2D10</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>-0.5904865748805408</v>
+          <t>JQ 1_2D03</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4893999048027023</v>
+        <v>-0.2517305894467072</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3385281320581819</v>
+        <v>1.658266337947665</v>
       </c>
       <c r="E101" t="n">
-        <v>0.1828829399709043</v>
+        <v>0.7969352294306613</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.3456175589572391</v>
+        <v>0.547722022620642</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-0.05354138217017694</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>Cycloheximide_2D11</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>-0.3692139522807429</v>
+          <t>RVX 208_2D04</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.5956044424283533</v>
+        <v>-0.5349663588346733</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.2643764880226485</v>
+        <v>0.667125407502944</v>
       </c>
       <c r="E102" t="n">
-        <v>-0.110660714042363</v>
+        <v>0.572677207923863</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.1443352503837751</v>
+        <v>0.2060303455024319</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-0.494018490733545</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>Umifenovir_2E02</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>0.6585080215110792</v>
+          <t>Osimertinib_2D05</t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2197759238047964</v>
+        <v>0.2679128675605904</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3127824750685523</v>
+        <v>1.72615438103991</v>
       </c>
       <c r="E103" t="n">
-        <v>0.09824018443365425</v>
+        <v>0.05785739270409107</v>
       </c>
       <c r="F103" t="n">
-        <v>1.004351786098256</v>
+        <v>0.370013661850389</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-0.1482603319668206</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>MRT 68601_2E03</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0.2913807826374228</v>
+          <t>Cloperastine_2D06</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4267314648922041</v>
+        <v>-0.4408728725007952</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.7073239907201877</v>
+        <v>0.1421909173046896</v>
       </c>
       <c r="E104" t="n">
-        <v>0.5116336279526205</v>
+        <v>-0.2335049442654742</v>
       </c>
       <c r="F104" t="n">
-        <v>0.5024501135995887</v>
+        <v>0.6447260162981571</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.4927448551002039</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>PD 144418_2E04</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>-0.05066329767472183</v>
+          <t>Clemastine_2D07</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.1458409803829435</v>
+        <v>-0.2988713057164959</v>
       </c>
       <c r="D105" t="n">
-        <v>0.3036231070569124</v>
+        <v>1.253097932553342</v>
       </c>
       <c r="E105" t="n">
-        <v>-0.1261172211582762</v>
+        <v>0.5415541296666849</v>
       </c>
       <c r="F105" t="n">
-        <v>0.428263088700549</v>
+        <v>0.5275101046754855</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.5669316318647045</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>(RS)-PPCC_2E05</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>0.4316928732803862</v>
+          <t>Merimepodib_2D08</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>1.262307026181118</v>
+        <v>-0.8955294965034356</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.4000570727626842</v>
+        <v>0.8140667417451972</v>
       </c>
       <c r="E106" t="n">
-        <v>0.280841821247422</v>
+        <v>0.5954767010536192</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1634673654627281</v>
+        <v>0.3035501230055592</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.2629665793285213</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>AZ3451_2E06</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>0.1386537771005604</v>
+          <t>E 52862_2D09</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0.03869396310380725</v>
+        <v>-0.4246030482930254</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4719994715700592</v>
+        <v>0.6543468618373667</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1058541748209587</v>
+        <v>0.9507818398708286</v>
       </c>
       <c r="F107" t="n">
-        <v>0.293722589603736</v>
+        <v>1.000429964645507</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.2910460567010744</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>ZINC4326719_2E07</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>0.5061905789190082</v>
+          <t>Doravirine_2D10</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0.05915153289022421</v>
+        <v>-0.5904865748805408</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1015566984860422</v>
+        <v>0.4893999048027023</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3715686546178506</v>
+        <v>0.3385281320581819</v>
       </c>
       <c r="F108" t="n">
-        <v>0.6809428330404386</v>
+        <v>0.1828829399709043</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-0.3456175589572391</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>Losartan_2E08</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>0.6255016903149146</v>
+          <t>Cycloheximide_2D11</t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1484553023976579</v>
+        <v>-0.3692139522807429</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.4502507949254376</v>
+        <v>-0.5956044424283533</v>
       </c>
       <c r="E109" t="n">
-        <v>0.613960353543148</v>
+        <v>-0.2643764880226485</v>
       </c>
       <c r="F109" t="n">
-        <v>0.6035282968606622</v>
+        <v>-0.110660714042363</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-0.1443352503837751</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>Nifedipine_2E09</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0.1433994966280732</v>
+          <t>Umifenovir_2E02</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.1712186038097962</v>
+        <v>0.6585080215110792</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.7454144453312614</v>
+        <v>0.2197759238047964</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9035079029052512</v>
+        <v>0.3127824750685523</v>
       </c>
       <c r="F110" t="n">
-        <v>0.3816451942230944</v>
+        <v>0.09824018443365425</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.004351786098256</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>Anagliptin_2E10</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>0.218705674362863</v>
+          <t>MRT 68601_2E03</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6251167651315508</v>
+        <v>0.2913807826374228</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.09217243325647288</v>
+        <v>0.4267314648922041</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2109445743711431</v>
+        <v>-0.7073239907201877</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6168512931511323</v>
+        <v>0.5116336279526205</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.5024501135995887</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>Desmethyl ferroquine_2E11</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0.6032183742123893</v>
+          <t>PD 144418_2E04</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.3323697281373301</v>
+        <v>-0.05066329767472183</v>
       </c>
       <c r="D112" t="n">
-        <v>0.07444500130879564</v>
+        <v>-0.1458409803829435</v>
       </c>
       <c r="E112" t="n">
-        <v>-0.1450550888771504</v>
+        <v>0.3036231070569124</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5041905971495816</v>
+        <v>-0.1261172211582762</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.428263088700549</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>Nebivolol_2F02</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>-0.3850784438399009</v>
+          <t>(RS)-PPCC_2E05</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>1.489566345039069</v>
+        <v>0.4316928732803862</v>
       </c>
       <c r="D113" t="n">
-        <v>0.156222615926851</v>
+        <v>1.262307026181118</v>
       </c>
       <c r="E113" t="n">
-        <v>0.2438389853198193</v>
+        <v>-0.4000570727626842</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.005181325874091085</v>
+        <v>0.280841821247422</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.1634673654627281</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>Aprepitant_2F03</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0.1552993261610731</v>
+          <t>AZ3451_2E06</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>0.9414726907504831</v>
+        <v>0.1386537771005604</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4576303143304738</v>
+        <v>0.03869396310380725</v>
       </c>
       <c r="E114" t="n">
-        <v>0.2219087132138244</v>
+        <v>0.4719994715700592</v>
       </c>
       <c r="F114" t="n">
-        <v>0.6665106402866751</v>
+        <v>0.1058541748209587</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.293722589603736</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>Danusertib_2F04</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>-0.3544392006031355</v>
+          <t>ZINC4326719_2E07</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7308128172278974</v>
+        <v>0.5061905789190082</v>
       </c>
       <c r="D115" t="n">
-        <v>0.3462468748136734</v>
+        <v>0.05915153289022421</v>
       </c>
       <c r="E115" t="n">
-        <v>0.6945646652809299</v>
+        <v>0.1015566984860422</v>
       </c>
       <c r="F115" t="n">
-        <v>0.5622616239502576</v>
+        <v>0.3715686546178506</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.6809428330404386</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>Apremilast_2F05</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>-0.692751163383828</v>
+          <t>Losartan_2E08</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>1.003385579547433</v>
+        <v>0.6255016903149146</v>
       </c>
       <c r="D116" t="n">
-        <v>1.183413793264901</v>
+        <v>0.1484553023976579</v>
       </c>
       <c r="E116" t="n">
-        <v>0.2849158954471266</v>
+        <v>-0.4502507949254376</v>
       </c>
       <c r="F116" t="n">
-        <v>0.2600330130365278</v>
+        <v>0.613960353543148</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.6035282968606622</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>(-)-Anisomycin_2F06</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>-0.7769692101225927</v>
+          <t>Nifedipine_2E09</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8941331773896224</v>
+        <v>0.1433994966280732</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5092639494158062</v>
+        <v>-0.1712186038097962</v>
       </c>
       <c r="E117" t="n">
-        <v>1.287854102443455</v>
+        <v>-0.7454144453312614</v>
       </c>
       <c r="F117" t="n">
-        <v>0.4923322552512742</v>
+        <v>0.9035079029052512</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.3816451942230944</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>Idelalisib_2F07</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>-0.229844992870661</v>
+          <t>Anagliptin_2E10</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5956046595000867</v>
+        <v>0.218705674362863</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.04270933233444169</v>
+        <v>0.6251167651315508</v>
       </c>
       <c r="E118" t="n">
-        <v>0.1694855792787662</v>
+        <v>-0.09217243325647288</v>
       </c>
       <c r="F118" t="n">
-        <v>0.861194186309551</v>
+        <v>0.2109445743711431</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.6168512931511323</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>Darifenacin_2F08</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>-0.5161635144958571</v>
+          <t>Desmethyl ferroquine_2E11</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9230704673310187</v>
+        <v>0.6032183742123893</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.3872608150719614</v>
+        <v>-0.3323697281373301</v>
       </c>
       <c r="E119" t="n">
-        <v>0.3071884803941026</v>
+        <v>0.07444500130879564</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4272145637028697</v>
+        <v>-0.1450550888771504</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.5041905971495816</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>Spectinomycin_2F09</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>-0.0151285267748008</v>
+          <t>Nebivolol_2F02</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0.659323351658601</v>
+        <v>-0.3850784438399009</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7887193898137098</v>
+        <v>1.489566345039069</v>
       </c>
       <c r="E120" t="n">
-        <v>0.02892509320631396</v>
+        <v>0.156222615926851</v>
       </c>
       <c r="F120" t="n">
-        <v>-0.07529549067902959</v>
+        <v>0.2438389853198193</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-0.005181325874091085</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>Oxatomide_2F10</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>-0.06906758330061992</v>
+          <t>Aprepitant_2F03</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6786496944165971</v>
+        <v>0.1552993261610731</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1089822978587334</v>
+        <v>0.9414726907504831</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0843442748133436</v>
+        <v>0.4576303143304738</v>
       </c>
       <c r="F121" t="n">
-        <v>0.00985777592913002</v>
+        <v>0.2219087132138244</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.6665106402866751</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>Promethazine_2F11</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>-0.6771872956982844</v>
+          <t>Danusertib_2F04</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4570487404531813</v>
+        <v>-0.3544392006031355</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.2161079192522994</v>
+        <v>0.7308128172278974</v>
       </c>
       <c r="E122" t="n">
-        <v>-0.1350627026420174</v>
+        <v>0.3462468748136734</v>
       </c>
       <c r="F122" t="n">
-        <v>0.144138731151087</v>
+        <v>0.6945646652809299</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.5622616239502576</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>Veliparib_2G02</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>0.08089929676016046</v>
+          <t>Apremilast_2F05</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9687817946214858</v>
+        <v>-0.692751163383828</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.2586224025386659</v>
+        <v>1.003385579547433</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3071884803941026</v>
+        <v>1.183413793264901</v>
       </c>
       <c r="F123" t="n">
-        <v>-0.6304420833854049</v>
+        <v>0.2849158954471266</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.2600330130365278</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>Celecoxib_2G03</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>1.016722201511969</v>
+          <t>(-)-Anisomycin_2F06</t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>1.044057617674024</v>
+        <v>-0.7769692101225927</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.06954866950450259</v>
+        <v>0.8941331773896224</v>
       </c>
       <c r="E124" t="n">
-        <v>0.03854600581982094</v>
+        <v>0.5092639494158062</v>
       </c>
       <c r="F124" t="n">
-        <v>-0.1030071467905806</v>
+        <v>1.287854102443455</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.4923322552512742</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>Cabozantinib_2G04</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>2.279282716947234</v>
+          <t>Idelalisib_2F07</t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>2.416540839481496</v>
+        <v>-0.229844992870661</v>
       </c>
       <c r="D125" t="n">
-        <v>1.462013946865227</v>
+        <v>0.5956046595000867</v>
       </c>
       <c r="E125" t="n">
-        <v>43.08979735711578</v>
+        <v>-0.04270933233444169</v>
       </c>
       <c r="F125" t="n">
-        <v>1.774106005950766</v>
+        <v>0.1694855792787662</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.861194186309551</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>Selumetinib_2G05</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>0.4511180299456379</v>
+          <t>Darifenacin_2F08</t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>1.214685679154816</v>
+        <v>-0.5161635144958571</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.2077231163768555</v>
+        <v>0.9230704673310187</v>
       </c>
       <c r="E126" t="n">
-        <v>-0.3328630698207365</v>
+        <v>-0.3872608150719614</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.01133413589825137</v>
+        <v>0.3071884803941026</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.4272145637028697</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>Bortezomib_2G06</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>0.03894805900580724</v>
+          <t>Spectinomycin_2F09</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0.627859187312769</v>
+        <v>-0.0151285267748008</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.1611125903650019</v>
+        <v>0.659323351658601</v>
       </c>
       <c r="E127" t="n">
-        <v>-0.1122824988416931</v>
+        <v>0.7887193898137098</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4036498916550469</v>
+        <v>0.02892509320631396</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-0.07529549067902959</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>Pimozide_2G07</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>3.646085990237541</v>
+          <t>Oxatomide_2F10</t>
+        </is>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>3.236277253352015</v>
+        <v>-0.06906758330061992</v>
       </c>
       <c r="D128" t="n">
-        <v>2.25626071974692</v>
+        <v>0.6786496944165971</v>
       </c>
       <c r="E128" t="n">
-        <v>0.6424147737955413</v>
+        <v>0.1089822978587334</v>
       </c>
       <c r="F128" t="n">
-        <v>1.376559946877759</v>
+        <v>0.0843442748133436</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.00985777592913002</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>Sertindole_2G08</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>0.9754641783635108</v>
+          <t>Promethazine_2F11</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8512481784529907</v>
+        <v>-0.6771872956982844</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.3265048020037811</v>
+        <v>0.4570487404531813</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3071884803941026</v>
+        <v>-0.2161079192522994</v>
       </c>
       <c r="F129" t="n">
-        <v>0.186887063023268</v>
+        <v>-0.1350627026420174</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.144138731151087</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>Boceprevir_2G09</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>0.5543390694323392</v>
+          <t>Veliparib_2G02</t>
+        </is>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3926520405062622</v>
+        <v>0.08089929676016046</v>
       </c>
       <c r="D130" t="n">
-        <v>0.1268252064279255</v>
+        <v>0.9687817946214858</v>
       </c>
       <c r="E130" t="n">
-        <v>0.4339024074277691</v>
+        <v>-0.2586224025386659</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5874194999650627</v>
+        <v>0.3071884803941026</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-0.6304420833854049</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>Valdecoxib_2G10</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>0.960919911782232</v>
+          <t>Celecoxib_2G03</t>
+        </is>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8609098112000249</v>
+        <v>1.016722201511969</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.2870073621577999</v>
+        <v>1.044057617674024</v>
       </c>
       <c r="E131" t="n">
-        <v>0.07148444048007735</v>
+        <v>-0.06954866950450259</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3704210710254278</v>
+        <v>0.03854600581982094</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-0.1030071467905806</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>Paroxetine_2G11</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>1.419297403982206</v>
+          <t>Cabozantinib_2G04</t>
+        </is>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8790663545080891</v>
+        <v>2.099009745553036</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.21541789776529</v>
+        <v>2.499359374072209</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0843442748133436</v>
+        <v>1.65008952434759</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.04266088978160949</v>
+        <v>43.06752049954208</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2.052269882700525</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>Darunavir_2H02</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>0.7614344483369869</v>
+      <c r="A133" s="1" t="n"/>
+      <c r="B133" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8506515534788358</v>
+        <v>0.5930906314466166</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8387703979414708</v>
+        <v>0.7114536720403377</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3450039729741172</v>
+        <v>-1.190045289843536</v>
       </c>
       <c r="F133" t="n">
-        <v>0.5092234911166754</v>
+        <v>10.05589064538223</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2.996350162880927</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>Brequinar_2H03</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>0.9141444444123467</v>
+          <t>Selumetinib_2G05</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>1.239816617984475</v>
+        <v>0.4511180299456379</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.1529114326909232</v>
+        <v>1.214685679154816</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.1860665400050187</v>
+        <v>-0.2077231163768555</v>
       </c>
       <c r="F134" t="n">
-        <v>0.501895977121079</v>
+        <v>-0.3328630698207365</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-0.01133413589825137</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>Delanzomib_2H04</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>1.259777347296658</v>
+          <t>Bortezomib_2G06</t>
+        </is>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0.2413217849904095</v>
+        <v>0.03894805900580724</v>
       </c>
       <c r="D135" t="n">
-        <v>2.133055634373233</v>
+        <v>0.627859187312769</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3367175148507369</v>
+        <v>-0.1611125903650019</v>
       </c>
       <c r="F135" t="n">
-        <v>0.3034329270639842</v>
+        <v>-0.1122824988416931</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.4036498916550469</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>Delavirdine_2H05</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>0.1288828780343457</v>
+          <t>Pimozide_2G07</t>
+        </is>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6760435411410076</v>
+        <v>3.646085990237541</v>
       </c>
       <c r="D136" t="n">
-        <v>1.577450617151919</v>
+        <v>3.236277253352015</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.6597897316389021</v>
+        <v>2.25626071974692</v>
       </c>
       <c r="F136" t="n">
-        <v>0.01364420615819004</v>
+        <v>0.6424147737955413</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1.376559946877759</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>Indinavir_2H06</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>0.5770680820932027</v>
+          <t>Sertindole_2G08</t>
+        </is>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0.2614277567915518</v>
+        <v>0.9754641783635108</v>
       </c>
       <c r="D137" t="n">
-        <v>1.160389389016583</v>
+        <v>0.8512481784529907</v>
       </c>
       <c r="E137" t="n">
-        <v>0.1478381953726348</v>
+        <v>-0.3265048020037811</v>
       </c>
       <c r="F137" t="n">
-        <v>0.6839311090422162</v>
+        <v>0.3071884803941026</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.186887063023268</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>Abacavir_2H07</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>0.6809638530771598</v>
+          <t>Boceprevir_2G09</t>
+        </is>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.2164391570060572</v>
+        <v>0.5543390694323392</v>
       </c>
       <c r="D138" t="n">
-        <v>0.6277446517009383</v>
+        <v>0.3926520405062622</v>
       </c>
       <c r="E138" t="n">
-        <v>0.08439188631164854</v>
+        <v>0.1268252064279255</v>
       </c>
       <c r="F138" t="n">
-        <v>0.8393340640549217</v>
+        <v>0.4339024074277691</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.5874194999650627</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>Chlorothiazide_2H08</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>0.8694953056038169</v>
+          <t>Valdecoxib_2G10</t>
+        </is>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.1782135336029232</v>
+        <v>0.960919911782232</v>
       </c>
       <c r="D139" t="n">
-        <v>1.396491629413492</v>
+        <v>0.8609098112000249</v>
       </c>
       <c r="E139" t="n">
-        <v>0.4445802183277949</v>
+        <v>-0.2870073621577999</v>
       </c>
       <c r="F139" t="n">
-        <v>-0.2471907397595691</v>
+        <v>0.07148444048007735</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.3704210710254278</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>Apixaban_2H09</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>0.8807152065720076</v>
+          <t>Paroxetine_2G11</t>
+        </is>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0.324372193233224</v>
+        <v>1.419297403982206</v>
       </c>
       <c r="D140" t="n">
-        <v>1.128340277036985</v>
+        <v>0.8790663545080891</v>
       </c>
       <c r="E140" t="n">
-        <v>0.202574013223596</v>
+        <v>-0.21541789776529</v>
       </c>
       <c r="F140" t="n">
-        <v>-0.5981647487789064</v>
+        <v>0.0843442748133436</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-0.04266088978160949</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>Naphtoquine_2H10</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>0.9173467630147369</v>
+          <t>Darunavir_2H02</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5476559494946777</v>
+        <v>0.7614344483369869</v>
       </c>
       <c r="D141" t="n">
-        <v>1.318372343905543</v>
+        <v>0.8506515534788358</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>0.8387703979414708</v>
       </c>
       <c r="F141" t="n">
-        <v>1.437468374748648</v>
+        <v>0.3450039729741172</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.5092234911166754</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>Piperaquine_2H11</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>0.9873299362158625</v>
+          <t>Brequinar_2H03</t>
+        </is>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0.06273620484779345</v>
+        <v>0.9141444444123467</v>
       </c>
       <c r="D142" t="n">
-        <v>0.9384022551770755</v>
+        <v>1.239816617984475</v>
       </c>
       <c r="E142" t="n">
-        <v>0.492464466661923</v>
+        <v>-0.1529114326909232</v>
       </c>
       <c r="F142" t="n">
-        <v>0.3367582435783322</v>
+        <v>-0.1860665400050187</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.501895977121079</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>Lusutrombopag_1A03</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>-0.5438106930856856</v>
+          <t>Delanzomib_2H04</t>
+        </is>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8327585653562121</v>
+        <v>1.259777347296658</v>
       </c>
       <c r="D143" t="n">
-        <v>0.01437077846529394</v>
+        <v>0.2413217849904095</v>
       </c>
       <c r="E143" t="n">
-        <v>-0.2771198189373626</v>
+        <v>2.133055634373233</v>
       </c>
       <c r="F143" t="n">
-        <v>-0.1094794219487304</v>
+        <v>0.3367175148507369</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.3034329270639842</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>Bemcentinib_1A04</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>-0.3692404948963336</v>
+          <t>Delavirdine_2H05</t>
+        </is>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0.4073027409366278</v>
+        <v>0.1288828780343457</v>
       </c>
       <c r="D144" t="n">
-        <v>0.9194618609725862</v>
+        <v>0.6760435411410076</v>
       </c>
       <c r="E144" t="n">
-        <v>-0.4781359437885085</v>
+        <v>1.577450617151919</v>
       </c>
       <c r="F144" t="n">
-        <v>0.1319878628328955</v>
+        <v>-0.6597897316389021</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.01364420615819004</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>ONO 5334_1A05</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>-0.8504109182759809</v>
+          <t>Indinavir_2H06</t>
+        </is>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>0.08533837785432963</v>
+        <v>0.5770680820932027</v>
       </c>
       <c r="D145" t="n">
-        <v>0.3684467572819252</v>
+        <v>0.2614277567915518</v>
       </c>
       <c r="E145" t="n">
-        <v>-0.4002949212985332</v>
+        <v>1.160389389016583</v>
       </c>
       <c r="F145" t="n">
-        <v>0.2066900598743888</v>
+        <v>0.1478381953726348</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.6839311090422162</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>Remdesivir_1A06</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>0.0210092144187637</v>
+          <t>Abacavir_2H07</t>
+        </is>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0.358480203657294</v>
+        <v>0.6809638530771598</v>
       </c>
       <c r="D146" t="n">
-        <v>0.3520553787017298</v>
+        <v>-0.2164391570060572</v>
       </c>
       <c r="E146" t="n">
-        <v>-0.2285489284971629</v>
+        <v>0.6277446517009383</v>
       </c>
       <c r="F146" t="n">
-        <v>0.1940722045905456</v>
+        <v>0.08439188631164854</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.8393340640549217</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>N-Desethylamodiaquine_1A07</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>-0.5140328211485994</v>
+          <t>Chlorothiazide_2H08</t>
+        </is>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.1159575175779294</v>
+        <v>0.8694953056038169</v>
       </c>
       <c r="D147" t="n">
-        <v>1.10094319537468</v>
+        <v>-0.1782135336029232</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.139372584527918</v>
+        <v>1.396491629413492</v>
       </c>
       <c r="F147" t="n">
-        <v>0.08360236881886823</v>
+        <v>0.4445802183277949</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-0.2471907397595691</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>Ciclesonide_1A08</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>0.2907778815765524</v>
+          <t>Apixaban_2H09</t>
+        </is>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.1879175287099154</v>
+        <v>0.8807152065720076</v>
       </c>
       <c r="D148" t="n">
-        <v>1.616267301654122</v>
+        <v>0.324372193233224</v>
       </c>
       <c r="E148" t="n">
-        <v>0.4782095201440693</v>
+        <v>1.128340277036985</v>
       </c>
       <c r="F148" t="n">
-        <v>-0.2052672502650235</v>
+        <v>0.202574013223596</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-0.5981647487789064</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>Nelfinavir_1A09</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>-0.3398056998440245</v>
+          <t>Naphtoquine_2H10</t>
+        </is>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.1098218257244363</v>
+        <v>0.9173467630147369</v>
       </c>
       <c r="D149" t="n">
-        <v>0.2455355607626937</v>
+        <v>0.5476559494946777</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.139372584527918</v>
+        <v>1.318372343905543</v>
       </c>
       <c r="F149" t="n">
-        <v>0.5014810729035744</v>
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1.437468374748648</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>Ethaverine_1A10</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>0.005603753767862973</v>
+          <t>Piperaquine_2H11</t>
+        </is>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.3648715275919299</v>
+        <v>0.9873299362158625</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.308213971334462</v>
+        <v>0.06273620484779345</v>
       </c>
       <c r="E150" t="n">
-        <v>0.1288093907540857</v>
+        <v>0.9384022551770755</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7486355753671792</v>
+        <v>0.492464466661923</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.3367582435783322</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>Ritonavir_1A11</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>-0.009963194083144894</v>
+          <t>Lusutrombopag_1A03</t>
+        </is>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0.334092037845437</v>
+        <v>-0.5438106930856856</v>
       </c>
       <c r="D151" t="n">
-        <v>0.4861472327589642</v>
+        <v>0.8327585653562121</v>
       </c>
       <c r="E151" t="n">
-        <v>0.2211545521267244</v>
+        <v>0.01437077846529394</v>
       </c>
       <c r="F151" t="n">
-        <v>0.632481133368608</v>
+        <v>-0.2771198189373626</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-0.1094794219487304</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>Chlorpromazine_1B02</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>0.1519025204887905</v>
+          <t>Bemcentinib_1A04</t>
+        </is>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0.6832413838517354</v>
+        <v>-0.3692404948963336</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.1682913552237496</v>
+        <v>0.4073027409366278</v>
       </c>
       <c r="E152" t="n">
-        <v>-0.3488954489053837</v>
+        <v>0.9194618609725862</v>
       </c>
       <c r="F152" t="n">
-        <v>-0.5268693288876319</v>
+        <v>-0.4781359437885085</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.1319878628328955</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>Regorafenib_1B04</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>1.658663358884102</v>
+          <t>ONO 5334_1A05</t>
+        </is>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>1.402450939066195</v>
+        <v>-0.8504109182759809</v>
       </c>
       <c r="D153" t="n">
-        <v>1.656671741904906</v>
+        <v>0.08533837785432963</v>
       </c>
       <c r="E153" t="n">
-        <v>16.38736419455427</v>
+        <v>0.3684467572819252</v>
       </c>
       <c r="F153" t="n">
-        <v>2.712178912593043</v>
+        <v>-0.4002949212985332</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.2066900598743888</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>Pexidartanib_1B05</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>0.9100295447814339</v>
+          <t>Remdesivir_1A06</t>
+        </is>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>1.307559264477617</v>
+        <v>0.0210092144187637</v>
       </c>
       <c r="D154" t="n">
-        <v>0.3658637852061125</v>
+        <v>0.358480203657294</v>
       </c>
       <c r="E154" t="n">
-        <v>1.072814451142873</v>
+        <v>0.3520553787017298</v>
       </c>
       <c r="F154" t="n">
-        <v>0.5531387140193889</v>
+        <v>-0.2285489284971629</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.1940722045905456</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>Ketoconazole_1B06</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>-0.6299780523676616</v>
+          <t>N-Desethylamodiaquine_1A07</t>
+        </is>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.2273856310328772</v>
+        <v>-0.5140328211485994</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.04395657505580394</v>
+        <v>-0.1159575175779294</v>
       </c>
       <c r="E155" t="n">
-        <v>-0.6218367858085804</v>
+        <v>1.10094319537468</v>
       </c>
       <c r="F155" t="n">
-        <v>-0.134084090021783</v>
+        <v>-0.139372584527918</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.08360236881886823</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>Drotaverine_1B07</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>0.3512787669030382</v>
+          <t>Ciclesonide_1A08</t>
+        </is>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.152831073141104</v>
+        <v>0.2907778815765524</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.1356522413301338</v>
+        <v>-0.1879175287099154</v>
       </c>
       <c r="E156" t="n">
-        <v>0.1850781107702294</v>
+        <v>1.616267301654122</v>
       </c>
       <c r="F156" t="n">
-        <v>0.1281480654754595</v>
+        <v>0.4782095201440693</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-0.2052672502650235</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>Verapamil_1B08</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>0.2095590528213438</v>
+          <t>Nelfinavir_1A09</t>
+        </is>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>0.06143406071179044</v>
+        <v>-0.3398056998440245</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.1362601488284882</v>
+        <v>-0.1098218257244363</v>
       </c>
       <c r="E157" t="n">
-        <v>0.1288093907540857</v>
+        <v>0.2455355607626937</v>
       </c>
       <c r="F157" t="n">
-        <v>-0.1637182684310051</v>
+        <v>-0.139372584527918</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.5014810729035744</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>R 7112_1B09</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>-0.6424876207599898</v>
+          <t>Ethaverine_1A10</t>
+        </is>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.447002026462957</v>
+        <v>0.005603753767862973</v>
       </c>
       <c r="D158" t="n">
-        <v>0.2074016896588563</v>
+        <v>-0.3648715275919299</v>
       </c>
       <c r="E158" t="n">
-        <v>-0.5847041077330131</v>
+        <v>-0.308213971334462</v>
       </c>
       <c r="F158" t="n">
-        <v>0.2073156700917194</v>
+        <v>0.1288093907540857</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.7486355753671792</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>Atazanavir_1B10</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>-0.6900409482319095</v>
+          <t>Ritonavir_1A11</t>
+        </is>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.09547878555421968</v>
+        <v>-0.009963194083144894</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.3391659797480865</v>
+        <v>0.334092037845437</v>
       </c>
       <c r="E159" t="n">
-        <v>0.4627293315308102</v>
+        <v>0.4861472327589642</v>
       </c>
       <c r="F159" t="n">
-        <v>-0.740728549868592</v>
+        <v>0.2211545521267244</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.632481133368608</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>Ruxolitinib_1B11</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>0.2024061032828319</v>
+          <t>Chlorpromazine_1B02</t>
+        </is>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0.663269595008444</v>
+        <v>0.1519025204887905</v>
       </c>
       <c r="D160" t="n">
-        <v>0.1744808946781908</v>
+        <v>0.6832413838517354</v>
       </c>
       <c r="E160" t="n">
-        <v>-0.3926443193258775</v>
+        <v>-0.1682913552237496</v>
       </c>
       <c r="F160" t="n">
-        <v>0.3359833568355843</v>
+        <v>-0.3488954489053837</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-0.5268693288876319</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>Niclosamide_1A02</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>1.245266387376578</v>
+          <t>Apilimod_1B03</t>
+        </is>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0.9804271024768952</v>
+        <v>2.893871181874138</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.1958480700771875</v>
+        <v>2.86999686394334</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.183516012932573</v>
+        <v>2.678284803390763</v>
       </c>
       <c r="F161" t="n">
-        <v>-0.1785342868137348</v>
+        <v>-0.2186941483265614</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1.554143481399387</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="inlineStr">
-        <is>
-          <t>Apilimod_1B03</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>1.652336005534342</v>
+      <c r="A162" s="1" t="n"/>
+      <c r="B162" s="1" t="n">
+        <v>0.5</v>
       </c>
       <c r="C162" t="n">
-        <v>1.569280959910038</v>
+        <v>1.365206389948895</v>
       </c>
       <c r="D162" t="n">
-        <v>0.1219362945188416</v>
+        <v>1.690809501368802</v>
       </c>
       <c r="E162" t="n">
-        <v>-0.1824964028379189</v>
+        <v>0.2205116938396981</v>
       </c>
       <c r="F162" t="n">
-        <v>-0.2011172096693538</v>
+        <v>-0.09991293263593562</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-0.1768707460090184</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
+          <t>Regorafenib_1B04</t>
+        </is>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.658663358884102</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.402450939066195</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.656671741904906</v>
+      </c>
+      <c r="F163" t="n">
+        <v>16.38736419455427</v>
+      </c>
+      <c r="G163" t="n">
+        <v>2.712178912593043</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>Pexidartanib_1B05</t>
+        </is>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.9100295447814339</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.307559264477617</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.3658637852061125</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.072814451142873</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.5531387140193889</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>Ketoconazole_1B06</t>
+        </is>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-0.6299780523676616</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-0.2273856310328772</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-0.04395657505580394</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-0.6218367858085804</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-0.134084090021783</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>Drotaverine_1B07</t>
+        </is>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.3512787669030382</v>
+      </c>
+      <c r="D166" t="n">
+        <v>-0.152831073141104</v>
+      </c>
+      <c r="E166" t="n">
+        <v>-0.1356522413301338</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.1850781107702294</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.1281480654754595</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>Verapamil_1B08</t>
+        </is>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.2095590528213438</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.06143406071179044</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-0.1362601488284882</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.1288093907540857</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-0.1637182684310051</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>R 7112_1B09</t>
+        </is>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>-0.6424876207599898</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-0.447002026462957</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.2074016896588563</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-0.5847041077330131</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.2073156700917194</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>Atazanavir_1B10</t>
+        </is>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>-0.6900409482319095</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-0.09547878555421968</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-0.3391659797480865</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.4627293315308102</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-0.740728549868592</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>Ruxolitinib_1B11</t>
+        </is>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.2024061032828319</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.663269595008444</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.1744808946781908</v>
+      </c>
+      <c r="F170" t="n">
+        <v>-0.3926443193258775</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.3359833568355843</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>Niclosamide_1A02</t>
+        </is>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.245266387376578</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.9804271024768952</v>
+      </c>
+      <c r="E171" t="n">
+        <v>-0.1958480700771875</v>
+      </c>
+      <c r="F171" t="n">
+        <v>-0.183516012932573</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-0.1785342868137348</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
           <t>Molnupiravir</t>
         </is>
       </c>
-      <c r="B163" t="n">
+      <c r="B172" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.549265900044023</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.2649671717775668</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.3880178974374772</v>
+      </c>
+      <c r="F172" t="n">
+        <v>-0.0409006676123264</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.4502320220602307</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n"/>
+      <c r="B173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
         <v>0.5197591916923522</v>
       </c>
-      <c r="C163" t="n">
+      <c r="D173" t="n">
         <v>0.8274687924235714</v>
       </c>
-      <c r="D163" t="n">
+      <c r="E173" t="n">
         <v>0.3478515184289209</v>
       </c>
-      <c r="E163" t="n">
+      <c r="F173" t="n">
         <v>-0.1296102853875947</v>
       </c>
-      <c r="F163" t="n">
+      <c r="G173" t="n">
         <v>-0.2842871227367199</v>
       </c>
     </row>
+    <row r="174">
+      <c r="A174" s="1" t="n"/>
+      <c r="B174" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.5883300577250292</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.3032580549601491</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.4055383867712186</v>
+      </c>
+      <c r="F174" t="n">
+        <v>-0.1292678565623494</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.2898211182664736</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n"/>
+      <c r="B175" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.4272311058575872</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.3475801212239165</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.2274056134291473</v>
+      </c>
+      <c r="F175" t="n">
+        <v>-0.1523898336019908</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.2814990183265618</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A161:A162"/>
+    <mergeCell ref="A172:A175"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>